--- a/replay_pilot/localizer_conditions.xlsx
+++ b/replay_pilot/localizer_conditions.xlsx
@@ -451,17 +451,17 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>blank_duration</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>iti_duration</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
           <t>corrAns</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>blank_duration</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>iti_duration</t>
         </is>
       </c>
     </row>
@@ -482,13 +482,13 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>1</v>
+        <v>1.78</v>
       </c>
       <c r="E2" t="n">
-        <v>1.78</v>
+        <v>2.3</v>
       </c>
       <c r="F2" t="n">
-        <v>2.3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -508,13 +508,13 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>2</v>
+        <v>1.76</v>
       </c>
       <c r="E3" t="n">
-        <v>1.76</v>
+        <v>2.21</v>
       </c>
       <c r="F3" t="n">
-        <v>2.21</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -534,13 +534,13 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>1</v>
+        <v>1.38</v>
       </c>
       <c r="E4" t="n">
-        <v>1.38</v>
+        <v>2.97</v>
       </c>
       <c r="F4" t="n">
-        <v>2.97</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5">
@@ -560,13 +560,13 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="E5" t="n">
-        <v>1.88</v>
+        <v>2.4</v>
       </c>
       <c r="F5" t="n">
-        <v>2.4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -586,13 +586,13 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>1</v>
+        <v>1.08</v>
       </c>
       <c r="E6" t="n">
-        <v>1.08</v>
+        <v>1.04</v>
       </c>
       <c r="F6" t="n">
-        <v>1.04</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7">
@@ -612,13 +612,13 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>1</v>
+        <v>1.81</v>
       </c>
       <c r="E7" t="n">
-        <v>1.81</v>
+        <v>1.38</v>
       </c>
       <c r="F7" t="n">
-        <v>1.38</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8">
@@ -638,13 +638,13 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>1</v>
+        <v>1.54</v>
       </c>
       <c r="E8" t="n">
-        <v>1.54</v>
+        <v>2.95</v>
       </c>
       <c r="F8" t="n">
-        <v>2.95</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9">
@@ -664,13 +664,13 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>1</v>
+        <v>1.81</v>
       </c>
       <c r="E9" t="n">
-        <v>1.81</v>
+        <v>2.37</v>
       </c>
       <c r="F9" t="n">
-        <v>2.37</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10">
@@ -690,13 +690,13 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="E10" t="n">
-        <v>1.67</v>
+        <v>1.45</v>
       </c>
       <c r="F10" t="n">
-        <v>1.45</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -716,13 +716,13 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>2</v>
+        <v>1.05</v>
       </c>
       <c r="E11" t="n">
-        <v>1.05</v>
+        <v>1.11</v>
       </c>
       <c r="F11" t="n">
-        <v>1.11</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12">
@@ -742,13 +742,13 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>2</v>
+        <v>1.01</v>
       </c>
       <c r="E12" t="n">
-        <v>1.01</v>
+        <v>1.15</v>
       </c>
       <c r="F12" t="n">
-        <v>1.15</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13">
@@ -768,13 +768,13 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="E13" t="n">
-        <v>1.9</v>
+        <v>1.98</v>
       </c>
       <c r="F13" t="n">
-        <v>1.98</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -794,13 +794,13 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>2</v>
+        <v>1.33</v>
       </c>
       <c r="E14" t="n">
-        <v>1.33</v>
+        <v>1.93</v>
       </c>
       <c r="F14" t="n">
-        <v>1.93</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15">
@@ -820,13 +820,13 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>2</v>
+        <v>1.28</v>
       </c>
       <c r="E15" t="n">
-        <v>1.28</v>
+        <v>1.88</v>
       </c>
       <c r="F15" t="n">
-        <v>1.88</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16">
@@ -846,13 +846,13 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>2</v>
+        <v>1.1</v>
       </c>
       <c r="E16" t="n">
-        <v>1.1</v>
+        <v>1.02</v>
       </c>
       <c r="F16" t="n">
-        <v>1.02</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17">
@@ -872,13 +872,13 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="E17" t="n">
-        <v>1.4</v>
+        <v>1.12</v>
       </c>
       <c r="F17" t="n">
-        <v>1.12</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18">
@@ -898,13 +898,13 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>1</v>
+        <v>1.75</v>
       </c>
       <c r="E18" t="n">
-        <v>1.75</v>
+        <v>1.35</v>
       </c>
       <c r="F18" t="n">
-        <v>1.35</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19">
@@ -924,13 +924,13 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>2</v>
+        <v>1.11</v>
       </c>
       <c r="E19" t="n">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="F19" t="n">
-        <v>1.13</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20">
@@ -950,13 +950,13 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>2</v>
+        <v>1.27</v>
       </c>
       <c r="E20" t="n">
-        <v>1.27</v>
+        <v>2.57</v>
       </c>
       <c r="F20" t="n">
-        <v>2.57</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21">
@@ -976,13 +976,13 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>2</v>
+        <v>1.6</v>
       </c>
       <c r="E21" t="n">
-        <v>1.6</v>
+        <v>2.9</v>
       </c>
       <c r="F21" t="n">
-        <v>2.9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22">
@@ -1002,13 +1002,13 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="E22" t="n">
-        <v>1.4</v>
+        <v>1.56</v>
       </c>
       <c r="F22" t="n">
-        <v>1.56</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23">
@@ -1028,13 +1028,13 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>2</v>
+        <v>1.99</v>
       </c>
       <c r="E23" t="n">
-        <v>1.99</v>
+        <v>1.61</v>
       </c>
       <c r="F23" t="n">
-        <v>1.61</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24">
@@ -1054,13 +1054,13 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="E24" t="n">
-        <v>1.98</v>
+        <v>2.07</v>
       </c>
       <c r="F24" t="n">
-        <v>2.07</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -1080,13 +1080,13 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>2</v>
+        <v>1.09</v>
       </c>
       <c r="E25" t="n">
-        <v>1.09</v>
+        <v>2.44</v>
       </c>
       <c r="F25" t="n">
-        <v>2.44</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26">
@@ -1106,13 +1106,13 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>1</v>
+        <v>1.23</v>
       </c>
       <c r="E26" t="n">
-        <v>1.23</v>
+        <v>1.58</v>
       </c>
       <c r="F26" t="n">
-        <v>1.58</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27">
@@ -1132,13 +1132,13 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>2</v>
+        <v>1.54</v>
       </c>
       <c r="E27" t="n">
-        <v>1.54</v>
+        <v>2.56</v>
       </c>
       <c r="F27" t="n">
-        <v>2.56</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -1158,13 +1158,13 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>1</v>
+        <v>1.58</v>
       </c>
       <c r="E28" t="n">
-        <v>1.58</v>
+        <v>2.97</v>
       </c>
       <c r="F28" t="n">
-        <v>2.97</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29">
@@ -1184,13 +1184,13 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="E29" t="n">
         <v>1.67</v>
       </c>
       <c r="F29" t="n">
-        <v>1.67</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -1210,13 +1210,13 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>2</v>
+        <v>1.45</v>
       </c>
       <c r="E30" t="n">
-        <v>1.45</v>
+        <v>2.5</v>
       </c>
       <c r="F30" t="n">
-        <v>2.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31">
@@ -1236,13 +1236,13 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>2</v>
+        <v>1.78</v>
       </c>
       <c r="E31" t="n">
-        <v>1.78</v>
+        <v>1.44</v>
       </c>
       <c r="F31" t="n">
-        <v>1.44</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32">
@@ -1262,13 +1262,13 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>1</v>
+        <v>1.08</v>
       </c>
       <c r="E32" t="n">
-        <v>1.08</v>
+        <v>1.47</v>
       </c>
       <c r="F32" t="n">
-        <v>1.47</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33">
@@ -1288,13 +1288,13 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>2</v>
+        <v>1.61</v>
       </c>
       <c r="E33" t="n">
-        <v>1.61</v>
+        <v>2.54</v>
       </c>
       <c r="F33" t="n">
-        <v>2.54</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34">
@@ -1314,13 +1314,13 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>1</v>
+        <v>1.38</v>
       </c>
       <c r="E34" t="n">
-        <v>1.38</v>
+        <v>1.42</v>
       </c>
       <c r="F34" t="n">
-        <v>1.42</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35">
@@ -1340,13 +1340,13 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>1</v>
+        <v>1.35</v>
       </c>
       <c r="E35" t="n">
-        <v>1.35</v>
+        <v>2.02</v>
       </c>
       <c r="F35" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36">
@@ -1366,13 +1366,13 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>1</v>
+        <v>1.57</v>
       </c>
       <c r="E36" t="n">
-        <v>1.57</v>
+        <v>1.81</v>
       </c>
       <c r="F36" t="n">
-        <v>1.81</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37">
@@ -1392,13 +1392,13 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>2</v>
+        <v>1.82</v>
       </c>
       <c r="E37" t="n">
-        <v>1.82</v>
+        <v>2.96</v>
       </c>
       <c r="F37" t="n">
-        <v>2.96</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38">
@@ -1418,13 +1418,13 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>1</v>
+        <v>1.81</v>
       </c>
       <c r="E38" t="n">
-        <v>1.81</v>
+        <v>2.4</v>
       </c>
       <c r="F38" t="n">
-        <v>2.4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39">
@@ -1444,13 +1444,13 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>2</v>
+        <v>1.09</v>
       </c>
       <c r="E39" t="n">
-        <v>1.09</v>
+        <v>1.5</v>
       </c>
       <c r="F39" t="n">
-        <v>1.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40">
@@ -1470,13 +1470,13 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>1</v>
+        <v>1.46</v>
       </c>
       <c r="E40" t="n">
-        <v>1.46</v>
+        <v>1.1</v>
       </c>
       <c r="F40" t="n">
-        <v>1.1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41">
@@ -1496,13 +1496,13 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>1</v>
+        <v>1.47</v>
       </c>
       <c r="E41" t="n">
-        <v>1.47</v>
+        <v>1.4</v>
       </c>
       <c r="F41" t="n">
-        <v>1.4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42">
@@ -1522,13 +1522,13 @@
         </is>
       </c>
       <c r="D42" t="n">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="E42" t="n">
-        <v>1.5</v>
+        <v>2.71</v>
       </c>
       <c r="F42" t="n">
-        <v>2.71</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43">
@@ -1548,13 +1548,13 @@
         </is>
       </c>
       <c r="D43" t="n">
-        <v>1</v>
+        <v>1.34</v>
       </c>
       <c r="E43" t="n">
-        <v>1.34</v>
+        <v>1.31</v>
       </c>
       <c r="F43" t="n">
-        <v>1.31</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44">
@@ -1574,13 +1574,13 @@
         </is>
       </c>
       <c r="D44" t="n">
-        <v>2</v>
+        <v>1.15</v>
       </c>
       <c r="E44" t="n">
-        <v>1.15</v>
+        <v>1.77</v>
       </c>
       <c r="F44" t="n">
-        <v>1.77</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45">
@@ -1600,13 +1600,13 @@
         </is>
       </c>
       <c r="D45" t="n">
-        <v>2</v>
+        <v>1.27</v>
       </c>
       <c r="E45" t="n">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
       <c r="F45" t="n">
-        <v>1.26</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46">
@@ -1626,13 +1626,13 @@
         </is>
       </c>
       <c r="D46" t="n">
-        <v>2</v>
+        <v>1.87</v>
       </c>
       <c r="E46" t="n">
-        <v>1.87</v>
+        <v>1.85</v>
       </c>
       <c r="F46" t="n">
-        <v>1.85</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -1652,13 +1652,13 @@
         </is>
       </c>
       <c r="D47" t="n">
-        <v>1</v>
+        <v>1.82</v>
       </c>
       <c r="E47" t="n">
-        <v>1.82</v>
+        <v>2.74</v>
       </c>
       <c r="F47" t="n">
-        <v>2.74</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48">
@@ -1678,13 +1678,13 @@
         </is>
       </c>
       <c r="D48" t="n">
-        <v>2</v>
+        <v>1.02</v>
       </c>
       <c r="E48" t="n">
-        <v>1.02</v>
+        <v>2.86</v>
       </c>
       <c r="F48" t="n">
-        <v>2.86</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49">
@@ -1704,13 +1704,13 @@
         </is>
       </c>
       <c r="D49" t="n">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="E49" t="n">
-        <v>1.4</v>
+        <v>1.68</v>
       </c>
       <c r="F49" t="n">
-        <v>1.68</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50">
@@ -1730,13 +1730,13 @@
         </is>
       </c>
       <c r="D50" t="n">
-        <v>2</v>
+        <v>1.65</v>
       </c>
       <c r="E50" t="n">
-        <v>1.65</v>
+        <v>1.98</v>
       </c>
       <c r="F50" t="n">
-        <v>1.98</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51">
@@ -1756,13 +1756,13 @@
         </is>
       </c>
       <c r="D51" t="n">
-        <v>2</v>
+        <v>1.2</v>
       </c>
       <c r="E51" t="n">
-        <v>1.2</v>
+        <v>1.62</v>
       </c>
       <c r="F51" t="n">
-        <v>1.62</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52">
@@ -1782,13 +1782,13 @@
         </is>
       </c>
       <c r="D52" t="n">
-        <v>2</v>
+        <v>1.04</v>
       </c>
       <c r="E52" t="n">
-        <v>1.04</v>
+        <v>1.73</v>
       </c>
       <c r="F52" t="n">
-        <v>1.73</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53">
@@ -1808,13 +1808,13 @@
         </is>
       </c>
       <c r="D53" t="n">
-        <v>1</v>
+        <v>1.62</v>
       </c>
       <c r="E53" t="n">
-        <v>1.62</v>
+        <v>2.33</v>
       </c>
       <c r="F53" t="n">
-        <v>2.33</v>
+        <v>2</v>
       </c>
     </row>
     <row r="54">
@@ -1834,13 +1834,13 @@
         </is>
       </c>
       <c r="D54" t="n">
-        <v>2</v>
+        <v>1.51</v>
       </c>
       <c r="E54" t="n">
-        <v>1.51</v>
+        <v>1.26</v>
       </c>
       <c r="F54" t="n">
-        <v>1.26</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
@@ -1860,13 +1860,13 @@
         </is>
       </c>
       <c r="D55" t="n">
-        <v>2</v>
+        <v>1.58</v>
       </c>
       <c r="E55" t="n">
-        <v>1.58</v>
+        <v>1.3</v>
       </c>
       <c r="F55" t="n">
-        <v>1.3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
@@ -1886,13 +1886,13 @@
         </is>
       </c>
       <c r="D56" t="n">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="E56" t="n">
-        <v>1.17</v>
+        <v>2.46</v>
       </c>
       <c r="F56" t="n">
-        <v>2.46</v>
+        <v>2</v>
       </c>
     </row>
     <row r="57">
@@ -1912,13 +1912,13 @@
         </is>
       </c>
       <c r="D57" t="n">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="E57" t="n">
-        <v>1.22</v>
+        <v>2.32</v>
       </c>
       <c r="F57" t="n">
-        <v>2.32</v>
+        <v>2</v>
       </c>
     </row>
     <row r="58">
@@ -1938,13 +1938,13 @@
         </is>
       </c>
       <c r="D58" t="n">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="E58" t="n">
-        <v>1.8</v>
+        <v>2.34</v>
       </c>
       <c r="F58" t="n">
-        <v>2.34</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59">
@@ -1964,13 +1964,13 @@
         </is>
       </c>
       <c r="D59" t="n">
-        <v>2</v>
+        <v>1.15</v>
       </c>
       <c r="E59" t="n">
-        <v>1.15</v>
+        <v>2.62</v>
       </c>
       <c r="F59" t="n">
-        <v>2.62</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60">
@@ -1990,13 +1990,13 @@
         </is>
       </c>
       <c r="D60" t="n">
-        <v>2</v>
+        <v>1.17</v>
       </c>
       <c r="E60" t="n">
-        <v>1.17</v>
+        <v>1.93</v>
       </c>
       <c r="F60" t="n">
-        <v>1.93</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61">
@@ -2016,13 +2016,13 @@
         </is>
       </c>
       <c r="D61" t="n">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="E61" t="n">
-        <v>1.9</v>
+        <v>1.42</v>
       </c>
       <c r="F61" t="n">
-        <v>1.42</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62">
@@ -2042,13 +2042,13 @@
         </is>
       </c>
       <c r="D62" t="n">
-        <v>2</v>
+        <v>1.26</v>
       </c>
       <c r="E62" t="n">
-        <v>1.26</v>
+        <v>1.49</v>
       </c>
       <c r="F62" t="n">
-        <v>1.49</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63">
@@ -2068,13 +2068,13 @@
         </is>
       </c>
       <c r="D63" t="n">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="E63" t="n">
-        <v>1.25</v>
+        <v>2.85</v>
       </c>
       <c r="F63" t="n">
-        <v>2.85</v>
+        <v>2</v>
       </c>
     </row>
     <row r="64">
@@ -2094,13 +2094,13 @@
         </is>
       </c>
       <c r="D64" t="n">
-        <v>2</v>
+        <v>1.51</v>
       </c>
       <c r="E64" t="n">
-        <v>1.51</v>
+        <v>1.21</v>
       </c>
       <c r="F64" t="n">
-        <v>1.21</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
@@ -2120,13 +2120,13 @@
         </is>
       </c>
       <c r="D65" t="n">
-        <v>1</v>
+        <v>1.21</v>
       </c>
       <c r="E65" t="n">
-        <v>1.21</v>
+        <v>2.57</v>
       </c>
       <c r="F65" t="n">
-        <v>2.57</v>
+        <v>2</v>
       </c>
     </row>
     <row r="66">
@@ -2146,13 +2146,13 @@
         </is>
       </c>
       <c r="D66" t="n">
-        <v>2</v>
+        <v>1.01</v>
       </c>
       <c r="E66" t="n">
-        <v>1.01</v>
+        <v>2.07</v>
       </c>
       <c r="F66" t="n">
-        <v>2.07</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
@@ -2172,13 +2172,13 @@
         </is>
       </c>
       <c r="D67" t="n">
-        <v>1</v>
+        <v>1.83</v>
       </c>
       <c r="E67" t="n">
-        <v>1.83</v>
+        <v>1.61</v>
       </c>
       <c r="F67" t="n">
-        <v>1.61</v>
+        <v>2</v>
       </c>
     </row>
     <row r="68">
@@ -2198,13 +2198,13 @@
         </is>
       </c>
       <c r="D68" t="n">
-        <v>1</v>
+        <v>1.61</v>
       </c>
       <c r="E68" t="n">
-        <v>1.61</v>
+        <v>2.5</v>
       </c>
       <c r="F68" t="n">
-        <v>2.5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="69">
@@ -2224,13 +2224,13 @@
         </is>
       </c>
       <c r="D69" t="n">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="E69" t="n">
-        <v>1.1</v>
+        <v>1.86</v>
       </c>
       <c r="F69" t="n">
-        <v>1.86</v>
+        <v>2</v>
       </c>
     </row>
     <row r="70">
@@ -2250,13 +2250,13 @@
         </is>
       </c>
       <c r="D70" t="n">
-        <v>2</v>
+        <v>1.55</v>
       </c>
       <c r="E70" t="n">
-        <v>1.55</v>
+        <v>1.54</v>
       </c>
       <c r="F70" t="n">
-        <v>1.54</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71">
@@ -2276,13 +2276,13 @@
         </is>
       </c>
       <c r="D71" t="n">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="E71" t="n">
-        <v>1.2</v>
+        <v>1.86</v>
       </c>
       <c r="F71" t="n">
-        <v>1.86</v>
+        <v>2</v>
       </c>
     </row>
     <row r="72">
@@ -2302,13 +2302,13 @@
         </is>
       </c>
       <c r="D72" t="n">
-        <v>1</v>
+        <v>1.03</v>
       </c>
       <c r="E72" t="n">
-        <v>1.03</v>
+        <v>1.62</v>
       </c>
       <c r="F72" t="n">
-        <v>1.62</v>
+        <v>2</v>
       </c>
     </row>
     <row r="73">
@@ -2328,13 +2328,13 @@
         </is>
       </c>
       <c r="D73" t="n">
-        <v>1</v>
+        <v>1.99</v>
       </c>
       <c r="E73" t="n">
-        <v>1.99</v>
+        <v>2.28</v>
       </c>
       <c r="F73" t="n">
-        <v>2.28</v>
+        <v>2</v>
       </c>
     </row>
     <row r="74">
@@ -2354,13 +2354,13 @@
         </is>
       </c>
       <c r="D74" t="n">
-        <v>2</v>
+        <v>1.38</v>
       </c>
       <c r="E74" t="n">
-        <v>1.38</v>
+        <v>1.01</v>
       </c>
       <c r="F74" t="n">
-        <v>1.01</v>
+        <v>1</v>
       </c>
     </row>
     <row r="75">
@@ -2380,13 +2380,13 @@
         </is>
       </c>
       <c r="D75" t="n">
-        <v>2</v>
+        <v>1.54</v>
       </c>
       <c r="E75" t="n">
-        <v>1.54</v>
+        <v>2.49</v>
       </c>
       <c r="F75" t="n">
-        <v>2.49</v>
+        <v>1</v>
       </c>
     </row>
     <row r="76">
@@ -2409,10 +2409,10 @@
         <v>2</v>
       </c>
       <c r="E76" t="n">
-        <v>2</v>
+        <v>1.28</v>
       </c>
       <c r="F76" t="n">
-        <v>1.28</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -2432,13 +2432,13 @@
         </is>
       </c>
       <c r="D77" t="n">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="E77" t="n">
-        <v>1.8</v>
+        <v>2.73</v>
       </c>
       <c r="F77" t="n">
-        <v>2.73</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78">
@@ -2458,13 +2458,13 @@
         </is>
       </c>
       <c r="D78" t="n">
-        <v>2</v>
+        <v>1.64</v>
       </c>
       <c r="E78" t="n">
-        <v>1.64</v>
+        <v>1.27</v>
       </c>
       <c r="F78" t="n">
-        <v>1.27</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
@@ -2484,13 +2484,13 @@
         </is>
       </c>
       <c r="D79" t="n">
-        <v>1</v>
+        <v>1.38</v>
       </c>
       <c r="E79" t="n">
-        <v>1.38</v>
+        <v>2.1</v>
       </c>
       <c r="F79" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="80">
@@ -2510,13 +2510,13 @@
         </is>
       </c>
       <c r="D80" t="n">
-        <v>1</v>
+        <v>1.24</v>
       </c>
       <c r="E80" t="n">
-        <v>1.24</v>
+        <v>2.34</v>
       </c>
       <c r="F80" t="n">
-        <v>2.34</v>
+        <v>2</v>
       </c>
     </row>
     <row r="81">
@@ -2536,13 +2536,13 @@
         </is>
       </c>
       <c r="D81" t="n">
-        <v>2</v>
+        <v>1.6</v>
       </c>
       <c r="E81" t="n">
-        <v>1.6</v>
+        <v>1.94</v>
       </c>
       <c r="F81" t="n">
-        <v>1.94</v>
+        <v>1</v>
       </c>
     </row>
     <row r="82">
@@ -2562,13 +2562,13 @@
         </is>
       </c>
       <c r="D82" t="n">
-        <v>2</v>
+        <v>1.28</v>
       </c>
       <c r="E82" t="n">
-        <v>1.28</v>
+        <v>2.18</v>
       </c>
       <c r="F82" t="n">
-        <v>2.18</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83">
@@ -2588,13 +2588,13 @@
         </is>
       </c>
       <c r="D83" t="n">
-        <v>2</v>
+        <v>1.01</v>
       </c>
       <c r="E83" t="n">
-        <v>1.01</v>
+        <v>2.24</v>
       </c>
       <c r="F83" t="n">
-        <v>2.24</v>
+        <v>1</v>
       </c>
     </row>
     <row r="84">
@@ -2614,13 +2614,13 @@
         </is>
       </c>
       <c r="D84" t="n">
-        <v>2</v>
+        <v>1.72</v>
       </c>
       <c r="E84" t="n">
-        <v>1.72</v>
+        <v>1.77</v>
       </c>
       <c r="F84" t="n">
-        <v>1.77</v>
+        <v>1</v>
       </c>
     </row>
     <row r="85">
@@ -2640,13 +2640,13 @@
         </is>
       </c>
       <c r="D85" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="E85" t="n">
-        <v>1.91</v>
+        <v>1.59</v>
       </c>
       <c r="F85" t="n">
-        <v>1.59</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86">
@@ -2666,13 +2666,13 @@
         </is>
       </c>
       <c r="D86" t="n">
-        <v>1</v>
+        <v>1.75</v>
       </c>
       <c r="E86" t="n">
-        <v>1.75</v>
+        <v>2.9</v>
       </c>
       <c r="F86" t="n">
-        <v>2.9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="87">
@@ -2692,13 +2692,13 @@
         </is>
       </c>
       <c r="D87" t="n">
-        <v>1</v>
+        <v>1.09</v>
       </c>
       <c r="E87" t="n">
-        <v>1.09</v>
+        <v>1.19</v>
       </c>
       <c r="F87" t="n">
-        <v>1.19</v>
+        <v>2</v>
       </c>
     </row>
     <row r="88">
@@ -2718,13 +2718,13 @@
         </is>
       </c>
       <c r="D88" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="E88" t="n">
-        <v>1.95</v>
+        <v>1.33</v>
       </c>
       <c r="F88" t="n">
-        <v>1.33</v>
+        <v>1</v>
       </c>
     </row>
     <row r="89">
@@ -2744,13 +2744,13 @@
         </is>
       </c>
       <c r="D89" t="n">
-        <v>1</v>
+        <v>1.88</v>
       </c>
       <c r="E89" t="n">
-        <v>1.88</v>
+        <v>1.52</v>
       </c>
       <c r="F89" t="n">
-        <v>1.52</v>
+        <v>2</v>
       </c>
     </row>
     <row r="90">
@@ -2770,13 +2770,13 @@
         </is>
       </c>
       <c r="D90" t="n">
-        <v>1</v>
+        <v>1.42</v>
       </c>
       <c r="E90" t="n">
-        <v>1.42</v>
+        <v>1.93</v>
       </c>
       <c r="F90" t="n">
-        <v>1.93</v>
+        <v>2</v>
       </c>
     </row>
     <row r="91">
@@ -2796,13 +2796,13 @@
         </is>
       </c>
       <c r="D91" t="n">
-        <v>1</v>
+        <v>1.67</v>
       </c>
       <c r="E91" t="n">
-        <v>1.67</v>
+        <v>2.13</v>
       </c>
       <c r="F91" t="n">
-        <v>2.13</v>
+        <v>2</v>
       </c>
     </row>
     <row r="92">
@@ -2822,13 +2822,13 @@
         </is>
       </c>
       <c r="D92" t="n">
-        <v>2</v>
+        <v>1.97</v>
       </c>
       <c r="E92" t="n">
-        <v>1.97</v>
+        <v>1.5</v>
       </c>
       <c r="F92" t="n">
-        <v>1.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="93">
@@ -2848,13 +2848,13 @@
         </is>
       </c>
       <c r="D93" t="n">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="E93" t="n">
-        <v>1.1</v>
+        <v>1.56</v>
       </c>
       <c r="F93" t="n">
-        <v>1.56</v>
+        <v>2</v>
       </c>
     </row>
     <row r="94">
@@ -2874,13 +2874,13 @@
         </is>
       </c>
       <c r="D94" t="n">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="E94" t="n">
-        <v>1.88</v>
+        <v>1.81</v>
       </c>
       <c r="F94" t="n">
-        <v>1.81</v>
+        <v>1</v>
       </c>
     </row>
     <row r="95">
@@ -2900,13 +2900,13 @@
         </is>
       </c>
       <c r="D95" t="n">
-        <v>1</v>
+        <v>1.37</v>
       </c>
       <c r="E95" t="n">
-        <v>1.37</v>
+        <v>2.01</v>
       </c>
       <c r="F95" t="n">
-        <v>2.01</v>
+        <v>2</v>
       </c>
     </row>
     <row r="96">
@@ -2926,13 +2926,13 @@
         </is>
       </c>
       <c r="D96" t="n">
-        <v>1</v>
+        <v>1.61</v>
       </c>
       <c r="E96" t="n">
-        <v>1.61</v>
+        <v>1.64</v>
       </c>
       <c r="F96" t="n">
-        <v>1.64</v>
+        <v>2</v>
       </c>
     </row>
     <row r="97">
@@ -2952,13 +2952,13 @@
         </is>
       </c>
       <c r="D97" t="n">
-        <v>2</v>
+        <v>1.45</v>
       </c>
       <c r="E97" t="n">
-        <v>1.45</v>
+        <v>1.5</v>
       </c>
       <c r="F97" t="n">
-        <v>1.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
@@ -2978,13 +2978,13 @@
         </is>
       </c>
       <c r="D98" t="n">
-        <v>1</v>
+        <v>1.42</v>
       </c>
       <c r="E98" t="n">
-        <v>1.42</v>
+        <v>1.56</v>
       </c>
       <c r="F98" t="n">
-        <v>1.56</v>
+        <v>2</v>
       </c>
     </row>
     <row r="99">
@@ -3004,13 +3004,13 @@
         </is>
       </c>
       <c r="D99" t="n">
-        <v>2</v>
+        <v>1.25</v>
       </c>
       <c r="E99" t="n">
-        <v>1.25</v>
+        <v>2.82</v>
       </c>
       <c r="F99" t="n">
-        <v>2.82</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100">
@@ -3030,13 +3030,13 @@
         </is>
       </c>
       <c r="D100" t="n">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="E100" t="n">
-        <v>1.67</v>
+        <v>2.6</v>
       </c>
       <c r="F100" t="n">
-        <v>2.6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="101">
@@ -3056,13 +3056,13 @@
         </is>
       </c>
       <c r="D101" t="n">
-        <v>1</v>
+        <v>1.08</v>
       </c>
       <c r="E101" t="n">
-        <v>1.08</v>
+        <v>1.37</v>
       </c>
       <c r="F101" t="n">
-        <v>1.37</v>
+        <v>2</v>
       </c>
     </row>
     <row r="102">
@@ -3082,13 +3082,13 @@
         </is>
       </c>
       <c r="D102" t="n">
-        <v>2</v>
+        <v>1.3</v>
       </c>
       <c r="E102" t="n">
-        <v>1.3</v>
+        <v>2.33</v>
       </c>
       <c r="F102" t="n">
-        <v>2.33</v>
+        <v>1</v>
       </c>
     </row>
     <row r="103">
@@ -3108,13 +3108,13 @@
         </is>
       </c>
       <c r="D103" t="n">
-        <v>2</v>
+        <v>1.42</v>
       </c>
       <c r="E103" t="n">
-        <v>1.42</v>
+        <v>1.13</v>
       </c>
       <c r="F103" t="n">
-        <v>1.13</v>
+        <v>1</v>
       </c>
     </row>
     <row r="104">
@@ -3134,13 +3134,13 @@
         </is>
       </c>
       <c r="D104" t="n">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="E104" t="n">
-        <v>1.89</v>
+        <v>2.72</v>
       </c>
       <c r="F104" t="n">
-        <v>2.72</v>
+        <v>1</v>
       </c>
     </row>
     <row r="105">
@@ -3160,13 +3160,13 @@
         </is>
       </c>
       <c r="D105" t="n">
-        <v>2</v>
+        <v>1.21</v>
       </c>
       <c r="E105" t="n">
-        <v>1.21</v>
+        <v>1.69</v>
       </c>
       <c r="F105" t="n">
-        <v>1.69</v>
+        <v>1</v>
       </c>
     </row>
     <row r="106">
@@ -3186,13 +3186,13 @@
         </is>
       </c>
       <c r="D106" t="n">
-        <v>1</v>
+        <v>1.86</v>
       </c>
       <c r="E106" t="n">
-        <v>1.86</v>
+        <v>2.15</v>
       </c>
       <c r="F106" t="n">
-        <v>2.15</v>
+        <v>2</v>
       </c>
     </row>
     <row r="107">
@@ -3212,13 +3212,13 @@
         </is>
       </c>
       <c r="D107" t="n">
-        <v>2</v>
+        <v>1.32</v>
       </c>
       <c r="E107" t="n">
-        <v>1.32</v>
+        <v>2.08</v>
       </c>
       <c r="F107" t="n">
-        <v>2.08</v>
+        <v>1</v>
       </c>
     </row>
     <row r="108">
@@ -3238,13 +3238,13 @@
         </is>
       </c>
       <c r="D108" t="n">
-        <v>1</v>
+        <v>1.12</v>
       </c>
       <c r="E108" t="n">
-        <v>1.12</v>
+        <v>2.8</v>
       </c>
       <c r="F108" t="n">
-        <v>2.8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="109">
@@ -3264,13 +3264,13 @@
         </is>
       </c>
       <c r="D109" t="n">
-        <v>1</v>
+        <v>1.16</v>
       </c>
       <c r="E109" t="n">
-        <v>1.16</v>
+        <v>2.92</v>
       </c>
       <c r="F109" t="n">
-        <v>2.92</v>
+        <v>2</v>
       </c>
     </row>
     <row r="110">
@@ -3290,13 +3290,13 @@
         </is>
       </c>
       <c r="D110" t="n">
-        <v>1</v>
+        <v>1.03</v>
       </c>
       <c r="E110" t="n">
-        <v>1.03</v>
+        <v>1.4</v>
       </c>
       <c r="F110" t="n">
-        <v>1.4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="111">
@@ -3316,13 +3316,13 @@
         </is>
       </c>
       <c r="D111" t="n">
-        <v>2</v>
+        <v>1.54</v>
       </c>
       <c r="E111" t="n">
-        <v>1.54</v>
+        <v>2.47</v>
       </c>
       <c r="F111" t="n">
-        <v>2.47</v>
+        <v>1</v>
       </c>
     </row>
     <row r="112">
@@ -3342,13 +3342,13 @@
         </is>
       </c>
       <c r="D112" t="n">
-        <v>1</v>
+        <v>1.49</v>
       </c>
       <c r="E112" t="n">
-        <v>1.49</v>
+        <v>1.43</v>
       </c>
       <c r="F112" t="n">
-        <v>1.43</v>
+        <v>2</v>
       </c>
     </row>
     <row r="113">
@@ -3368,13 +3368,13 @@
         </is>
       </c>
       <c r="D113" t="n">
-        <v>2</v>
+        <v>1.09</v>
       </c>
       <c r="E113" t="n">
-        <v>1.09</v>
+        <v>1.44</v>
       </c>
       <c r="F113" t="n">
-        <v>1.44</v>
+        <v>1</v>
       </c>
     </row>
     <row r="114">
@@ -3394,13 +3394,13 @@
         </is>
       </c>
       <c r="D114" t="n">
-        <v>2</v>
+        <v>1.11</v>
       </c>
       <c r="E114" t="n">
-        <v>1.11</v>
+        <v>1.87</v>
       </c>
       <c r="F114" t="n">
-        <v>1.87</v>
+        <v>1</v>
       </c>
     </row>
     <row r="115">
@@ -3420,13 +3420,13 @@
         </is>
       </c>
       <c r="D115" t="n">
-        <v>1</v>
+        <v>1.07</v>
       </c>
       <c r="E115" t="n">
-        <v>1.07</v>
+        <v>2.55</v>
       </c>
       <c r="F115" t="n">
-        <v>2.55</v>
+        <v>2</v>
       </c>
     </row>
     <row r="116">
@@ -3446,13 +3446,13 @@
         </is>
       </c>
       <c r="D116" t="n">
-        <v>1</v>
+        <v>1.15</v>
       </c>
       <c r="E116" t="n">
-        <v>1.15</v>
+        <v>1.25</v>
       </c>
       <c r="F116" t="n">
-        <v>1.25</v>
+        <v>2</v>
       </c>
     </row>
     <row r="117">
@@ -3472,13 +3472,13 @@
         </is>
       </c>
       <c r="D117" t="n">
-        <v>1</v>
+        <v>1.27</v>
       </c>
       <c r="E117" t="n">
-        <v>1.27</v>
+        <v>2.87</v>
       </c>
       <c r="F117" t="n">
-        <v>2.87</v>
+        <v>2</v>
       </c>
     </row>
     <row r="118">
@@ -3498,13 +3498,13 @@
         </is>
       </c>
       <c r="D118" t="n">
-        <v>1</v>
+        <v>1.38</v>
       </c>
       <c r="E118" t="n">
-        <v>1.38</v>
+        <v>2.5</v>
       </c>
       <c r="F118" t="n">
-        <v>2.5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="119">
@@ -3524,13 +3524,13 @@
         </is>
       </c>
       <c r="D119" t="n">
-        <v>2</v>
+        <v>1.52</v>
       </c>
       <c r="E119" t="n">
-        <v>1.52</v>
+        <v>1.1</v>
       </c>
       <c r="F119" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="120">
@@ -3550,13 +3550,13 @@
         </is>
       </c>
       <c r="D120" t="n">
-        <v>2</v>
+        <v>1.41</v>
       </c>
       <c r="E120" t="n">
-        <v>1.41</v>
+        <v>2.26</v>
       </c>
       <c r="F120" t="n">
-        <v>2.26</v>
+        <v>1</v>
       </c>
     </row>
     <row r="121">
@@ -3576,13 +3576,13 @@
         </is>
       </c>
       <c r="D121" t="n">
-        <v>1</v>
+        <v>1.89</v>
       </c>
       <c r="E121" t="n">
-        <v>1.89</v>
+        <v>1.49</v>
       </c>
       <c r="F121" t="n">
-        <v>1.49</v>
+        <v>2</v>
       </c>
     </row>
     <row r="122">
@@ -3602,13 +3602,13 @@
         </is>
       </c>
       <c r="D122" t="n">
-        <v>1</v>
+        <v>1.21</v>
       </c>
       <c r="E122" t="n">
-        <v>1.21</v>
+        <v>2.89</v>
       </c>
       <c r="F122" t="n">
-        <v>2.89</v>
+        <v>2</v>
       </c>
     </row>
     <row r="123">
@@ -3628,13 +3628,13 @@
         </is>
       </c>
       <c r="D123" t="n">
-        <v>1</v>
+        <v>1.86</v>
       </c>
       <c r="E123" t="n">
-        <v>1.86</v>
+        <v>1.5</v>
       </c>
       <c r="F123" t="n">
-        <v>1.5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="124">
@@ -3654,13 +3654,13 @@
         </is>
       </c>
       <c r="D124" t="n">
-        <v>1</v>
+        <v>1.85</v>
       </c>
       <c r="E124" t="n">
-        <v>1.85</v>
+        <v>2.21</v>
       </c>
       <c r="F124" t="n">
-        <v>2.21</v>
+        <v>2</v>
       </c>
     </row>
     <row r="125">
@@ -3680,13 +3680,13 @@
         </is>
       </c>
       <c r="D125" t="n">
-        <v>2</v>
+        <v>1.26</v>
       </c>
       <c r="E125" t="n">
-        <v>1.26</v>
+        <v>2.78</v>
       </c>
       <c r="F125" t="n">
-        <v>2.78</v>
+        <v>1</v>
       </c>
     </row>
     <row r="126">
@@ -3706,13 +3706,13 @@
         </is>
       </c>
       <c r="D126" t="n">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="E126" t="n">
-        <v>1.88</v>
+        <v>2.29</v>
       </c>
       <c r="F126" t="n">
-        <v>2.29</v>
+        <v>1</v>
       </c>
     </row>
     <row r="127">
@@ -3732,13 +3732,13 @@
         </is>
       </c>
       <c r="D127" t="n">
-        <v>1</v>
+        <v>1.64</v>
       </c>
       <c r="E127" t="n">
-        <v>1.64</v>
+        <v>1.05</v>
       </c>
       <c r="F127" t="n">
-        <v>1.05</v>
+        <v>2</v>
       </c>
     </row>
     <row r="128">
@@ -3758,13 +3758,13 @@
         </is>
       </c>
       <c r="D128" t="n">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="E128" t="n">
-        <v>1.33</v>
+        <v>2.39</v>
       </c>
       <c r="F128" t="n">
-        <v>2.39</v>
+        <v>2</v>
       </c>
     </row>
     <row r="129">
@@ -3784,13 +3784,13 @@
         </is>
       </c>
       <c r="D129" t="n">
-        <v>1</v>
+        <v>1.37</v>
       </c>
       <c r="E129" t="n">
-        <v>1.37</v>
+        <v>1.42</v>
       </c>
       <c r="F129" t="n">
-        <v>1.42</v>
+        <v>2</v>
       </c>
     </row>
     <row r="130">
@@ -3810,13 +3810,13 @@
         </is>
       </c>
       <c r="D130" t="n">
-        <v>1</v>
+        <v>1.94</v>
       </c>
       <c r="E130" t="n">
-        <v>1.94</v>
+        <v>2.14</v>
       </c>
       <c r="F130" t="n">
-        <v>2.14</v>
+        <v>2</v>
       </c>
     </row>
     <row r="131">
@@ -3836,13 +3836,13 @@
         </is>
       </c>
       <c r="D131" t="n">
-        <v>1</v>
+        <v>1.44</v>
       </c>
       <c r="E131" t="n">
-        <v>1.44</v>
+        <v>2.35</v>
       </c>
       <c r="F131" t="n">
-        <v>2.35</v>
+        <v>2</v>
       </c>
     </row>
     <row r="132">
@@ -3862,13 +3862,13 @@
         </is>
       </c>
       <c r="D132" t="n">
-        <v>1</v>
+        <v>1.56</v>
       </c>
       <c r="E132" t="n">
-        <v>1.56</v>
+        <v>2.44</v>
       </c>
       <c r="F132" t="n">
-        <v>2.44</v>
+        <v>2</v>
       </c>
     </row>
     <row r="133">
@@ -3888,13 +3888,13 @@
         </is>
       </c>
       <c r="D133" t="n">
-        <v>2</v>
+        <v>1.3</v>
       </c>
       <c r="E133" t="n">
-        <v>1.3</v>
+        <v>1.72</v>
       </c>
       <c r="F133" t="n">
-        <v>1.72</v>
+        <v>1</v>
       </c>
     </row>
     <row r="134">
@@ -3914,13 +3914,13 @@
         </is>
       </c>
       <c r="D134" t="n">
-        <v>1</v>
+        <v>1.6</v>
       </c>
       <c r="E134" t="n">
-        <v>1.6</v>
+        <v>2.35</v>
       </c>
       <c r="F134" t="n">
-        <v>2.35</v>
+        <v>2</v>
       </c>
     </row>
     <row r="135">
@@ -3940,13 +3940,13 @@
         </is>
       </c>
       <c r="D135" t="n">
-        <v>2</v>
+        <v>1.44</v>
       </c>
       <c r="E135" t="n">
-        <v>1.44</v>
+        <v>2.41</v>
       </c>
       <c r="F135" t="n">
-        <v>2.41</v>
+        <v>1</v>
       </c>
     </row>
     <row r="136">
@@ -3966,13 +3966,13 @@
         </is>
       </c>
       <c r="D136" t="n">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="E136" t="n">
-        <v>1.86</v>
+        <v>1.14</v>
       </c>
       <c r="F136" t="n">
-        <v>1.14</v>
+        <v>1</v>
       </c>
     </row>
     <row r="137">
@@ -3992,13 +3992,13 @@
         </is>
       </c>
       <c r="D137" t="n">
-        <v>2</v>
+        <v>1.2</v>
       </c>
       <c r="E137" t="n">
-        <v>1.2</v>
+        <v>1.75</v>
       </c>
       <c r="F137" t="n">
-        <v>1.75</v>
+        <v>1</v>
       </c>
     </row>
     <row r="138">
@@ -4018,13 +4018,13 @@
         </is>
       </c>
       <c r="D138" t="n">
-        <v>2</v>
+        <v>1.56</v>
       </c>
       <c r="E138" t="n">
-        <v>1.56</v>
+        <v>2.03</v>
       </c>
       <c r="F138" t="n">
-        <v>2.03</v>
+        <v>1</v>
       </c>
     </row>
     <row r="139">
@@ -4044,13 +4044,13 @@
         </is>
       </c>
       <c r="D139" t="n">
-        <v>1</v>
+        <v>1.35</v>
       </c>
       <c r="E139" t="n">
-        <v>1.35</v>
+        <v>1.86</v>
       </c>
       <c r="F139" t="n">
-        <v>1.86</v>
+        <v>2</v>
       </c>
     </row>
     <row r="140">
@@ -4070,13 +4070,13 @@
         </is>
       </c>
       <c r="D140" t="n">
-        <v>1</v>
+        <v>1.46</v>
       </c>
       <c r="E140" t="n">
-        <v>1.46</v>
+        <v>1.85</v>
       </c>
       <c r="F140" t="n">
-        <v>1.85</v>
+        <v>2</v>
       </c>
     </row>
     <row r="141">
@@ -4096,13 +4096,13 @@
         </is>
       </c>
       <c r="D141" t="n">
-        <v>2</v>
+        <v>1.19</v>
       </c>
       <c r="E141" t="n">
-        <v>1.19</v>
+        <v>1.43</v>
       </c>
       <c r="F141" t="n">
-        <v>1.43</v>
+        <v>1</v>
       </c>
     </row>
     <row r="142">
@@ -4122,13 +4122,13 @@
         </is>
       </c>
       <c r="D142" t="n">
-        <v>1</v>
+        <v>1.98</v>
       </c>
       <c r="E142" t="n">
-        <v>1.98</v>
+        <v>2.57</v>
       </c>
       <c r="F142" t="n">
-        <v>2.57</v>
+        <v>2</v>
       </c>
     </row>
     <row r="143">
@@ -4148,13 +4148,13 @@
         </is>
       </c>
       <c r="D143" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E143" t="n">
-        <v>1</v>
+        <v>2.44</v>
       </c>
       <c r="F143" t="n">
-        <v>2.44</v>
+        <v>1</v>
       </c>
     </row>
     <row r="144">
@@ -4174,13 +4174,13 @@
         </is>
       </c>
       <c r="D144" t="n">
-        <v>1</v>
+        <v>1.77</v>
       </c>
       <c r="E144" t="n">
-        <v>1.77</v>
+        <v>2.7</v>
       </c>
       <c r="F144" t="n">
-        <v>2.7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="145">
@@ -4200,13 +4200,13 @@
         </is>
       </c>
       <c r="D145" t="n">
-        <v>1</v>
+        <v>1.97</v>
       </c>
       <c r="E145" t="n">
-        <v>1.97</v>
+        <v>2.85</v>
       </c>
       <c r="F145" t="n">
-        <v>2.85</v>
+        <v>2</v>
       </c>
     </row>
     <row r="146">
@@ -4226,13 +4226,13 @@
         </is>
       </c>
       <c r="D146" t="n">
-        <v>2</v>
+        <v>1.63</v>
       </c>
       <c r="E146" t="n">
-        <v>1.63</v>
+        <v>1.46</v>
       </c>
       <c r="F146" t="n">
-        <v>1.46</v>
+        <v>1</v>
       </c>
     </row>
     <row r="147">
@@ -4252,13 +4252,13 @@
         </is>
       </c>
       <c r="D147" t="n">
-        <v>1</v>
+        <v>1.21</v>
       </c>
       <c r="E147" t="n">
-        <v>1.21</v>
+        <v>1.26</v>
       </c>
       <c r="F147" t="n">
-        <v>1.26</v>
+        <v>2</v>
       </c>
     </row>
     <row r="148">
@@ -4278,13 +4278,13 @@
         </is>
       </c>
       <c r="D148" t="n">
-        <v>1</v>
+        <v>1.96</v>
       </c>
       <c r="E148" t="n">
-        <v>1.96</v>
+        <v>2.27</v>
       </c>
       <c r="F148" t="n">
-        <v>2.27</v>
+        <v>2</v>
       </c>
     </row>
     <row r="149">
@@ -4304,13 +4304,13 @@
         </is>
       </c>
       <c r="D149" t="n">
-        <v>2</v>
+        <v>1.2</v>
       </c>
       <c r="E149" t="n">
-        <v>1.2</v>
+        <v>2.43</v>
       </c>
       <c r="F149" t="n">
-        <v>2.43</v>
+        <v>1</v>
       </c>
     </row>
     <row r="150">
@@ -4330,13 +4330,13 @@
         </is>
       </c>
       <c r="D150" t="n">
-        <v>1</v>
+        <v>1.35</v>
       </c>
       <c r="E150" t="n">
-        <v>1.35</v>
+        <v>2.3</v>
       </c>
       <c r="F150" t="n">
-        <v>2.3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="151">
@@ -4356,13 +4356,13 @@
         </is>
       </c>
       <c r="D151" t="n">
-        <v>1</v>
+        <v>1.97</v>
       </c>
       <c r="E151" t="n">
-        <v>1.97</v>
+        <v>2.16</v>
       </c>
       <c r="F151" t="n">
-        <v>2.16</v>
+        <v>2</v>
       </c>
     </row>
     <row r="152">
@@ -4382,13 +4382,13 @@
         </is>
       </c>
       <c r="D152" t="n">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="E152" t="n">
-        <v>1.9</v>
+        <v>2.49</v>
       </c>
       <c r="F152" t="n">
-        <v>2.49</v>
+        <v>1</v>
       </c>
     </row>
     <row r="153">
@@ -4408,13 +4408,13 @@
         </is>
       </c>
       <c r="D153" t="n">
-        <v>2</v>
+        <v>1.53</v>
       </c>
       <c r="E153" t="n">
-        <v>1.53</v>
+        <v>2.34</v>
       </c>
       <c r="F153" t="n">
-        <v>2.34</v>
+        <v>1</v>
       </c>
     </row>
     <row r="154">
@@ -4434,13 +4434,13 @@
         </is>
       </c>
       <c r="D154" t="n">
-        <v>2</v>
+        <v>1.6</v>
       </c>
       <c r="E154" t="n">
-        <v>1.6</v>
+        <v>2.96</v>
       </c>
       <c r="F154" t="n">
-        <v>2.96</v>
+        <v>1</v>
       </c>
     </row>
     <row r="155">
@@ -4460,13 +4460,13 @@
         </is>
       </c>
       <c r="D155" t="n">
-        <v>1</v>
+        <v>1.44</v>
       </c>
       <c r="E155" t="n">
-        <v>1.44</v>
+        <v>2.04</v>
       </c>
       <c r="F155" t="n">
-        <v>2.04</v>
+        <v>2</v>
       </c>
     </row>
     <row r="156">
@@ -4486,13 +4486,13 @@
         </is>
       </c>
       <c r="D156" t="n">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="E156" t="n">
-        <v>1.92</v>
+        <v>1.24</v>
       </c>
       <c r="F156" t="n">
-        <v>1.24</v>
+        <v>1</v>
       </c>
     </row>
     <row r="157">
@@ -4512,13 +4512,13 @@
         </is>
       </c>
       <c r="D157" t="n">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="E157" t="n">
-        <v>1.22</v>
+        <v>2.4</v>
       </c>
       <c r="F157" t="n">
-        <v>2.4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="158">
@@ -4541,10 +4541,10 @@
         <v>2</v>
       </c>
       <c r="E158" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="F158" t="n">
-        <v>2.1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="159">
@@ -4564,13 +4564,13 @@
         </is>
       </c>
       <c r="D159" t="n">
-        <v>2</v>
+        <v>1.71</v>
       </c>
       <c r="E159" t="n">
-        <v>1.71</v>
+        <v>1.13</v>
       </c>
       <c r="F159" t="n">
-        <v>1.13</v>
+        <v>1</v>
       </c>
     </row>
     <row r="160">
@@ -4590,13 +4590,13 @@
         </is>
       </c>
       <c r="D160" t="n">
-        <v>1</v>
+        <v>1.82</v>
       </c>
       <c r="E160" t="n">
-        <v>1.82</v>
+        <v>1.21</v>
       </c>
       <c r="F160" t="n">
-        <v>1.21</v>
+        <v>2</v>
       </c>
     </row>
     <row r="161">
@@ -4616,13 +4616,13 @@
         </is>
       </c>
       <c r="D161" t="n">
-        <v>1</v>
+        <v>1.81</v>
       </c>
       <c r="E161" t="n">
-        <v>1.81</v>
+        <v>1.01</v>
       </c>
       <c r="F161" t="n">
-        <v>1.01</v>
+        <v>2</v>
       </c>
     </row>
     <row r="162">
@@ -4642,13 +4642,13 @@
         </is>
       </c>
       <c r="D162" t="n">
-        <v>2</v>
+        <v>1.24</v>
       </c>
       <c r="E162" t="n">
-        <v>1.24</v>
+        <v>1.93</v>
       </c>
       <c r="F162" t="n">
-        <v>1.93</v>
+        <v>1</v>
       </c>
     </row>
     <row r="163">
@@ -4668,13 +4668,13 @@
         </is>
       </c>
       <c r="D163" t="n">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="E163" t="n">
-        <v>1.33</v>
+        <v>1.06</v>
       </c>
       <c r="F163" t="n">
-        <v>1.06</v>
+        <v>2</v>
       </c>
     </row>
     <row r="164">
@@ -4694,13 +4694,13 @@
         </is>
       </c>
       <c r="D164" t="n">
-        <v>1</v>
+        <v>1.47</v>
       </c>
       <c r="E164" t="n">
-        <v>1.47</v>
+        <v>2.57</v>
       </c>
       <c r="F164" t="n">
-        <v>2.57</v>
+        <v>2</v>
       </c>
     </row>
     <row r="165">
@@ -4720,13 +4720,13 @@
         </is>
       </c>
       <c r="D165" t="n">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="E165" t="n">
-        <v>1.75</v>
+        <v>2.54</v>
       </c>
       <c r="F165" t="n">
-        <v>2.54</v>
+        <v>1</v>
       </c>
     </row>
     <row r="166">
@@ -4746,13 +4746,13 @@
         </is>
       </c>
       <c r="D166" t="n">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="E166" t="n">
-        <v>1.92</v>
+        <v>2.56</v>
       </c>
       <c r="F166" t="n">
-        <v>2.56</v>
+        <v>1</v>
       </c>
     </row>
     <row r="167">
@@ -4772,13 +4772,13 @@
         </is>
       </c>
       <c r="D167" t="n">
-        <v>1</v>
+        <v>1.54</v>
       </c>
       <c r="E167" t="n">
-        <v>1.54</v>
+        <v>2.5</v>
       </c>
       <c r="F167" t="n">
-        <v>2.5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="168">
@@ -4798,13 +4798,13 @@
         </is>
       </c>
       <c r="D168" t="n">
-        <v>1</v>
+        <v>1.44</v>
       </c>
       <c r="E168" t="n">
-        <v>1.44</v>
+        <v>2.47</v>
       </c>
       <c r="F168" t="n">
-        <v>2.47</v>
+        <v>2</v>
       </c>
     </row>
     <row r="169">
@@ -4824,13 +4824,13 @@
         </is>
       </c>
       <c r="D169" t="n">
-        <v>2</v>
+        <v>1.97</v>
       </c>
       <c r="E169" t="n">
-        <v>1.97</v>
+        <v>2.72</v>
       </c>
       <c r="F169" t="n">
-        <v>2.72</v>
+        <v>1</v>
       </c>
     </row>
     <row r="170">
@@ -4850,13 +4850,13 @@
         </is>
       </c>
       <c r="D170" t="n">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="E170" t="n">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="F170" t="n">
-        <v>1.8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="171">
@@ -4876,13 +4876,13 @@
         </is>
       </c>
       <c r="D171" t="n">
-        <v>1</v>
+        <v>1.68</v>
       </c>
       <c r="E171" t="n">
-        <v>1.68</v>
+        <v>2.69</v>
       </c>
       <c r="F171" t="n">
-        <v>2.69</v>
+        <v>2</v>
       </c>
     </row>
     <row r="172">
@@ -4902,13 +4902,13 @@
         </is>
       </c>
       <c r="D172" t="n">
-        <v>1</v>
+        <v>1.15</v>
       </c>
       <c r="E172" t="n">
-        <v>1.15</v>
+        <v>1.59</v>
       </c>
       <c r="F172" t="n">
-        <v>1.59</v>
+        <v>2</v>
       </c>
     </row>
     <row r="173">
@@ -4928,13 +4928,13 @@
         </is>
       </c>
       <c r="D173" t="n">
-        <v>1</v>
+        <v>1.6</v>
       </c>
       <c r="E173" t="n">
-        <v>1.6</v>
+        <v>1.24</v>
       </c>
       <c r="F173" t="n">
-        <v>1.24</v>
+        <v>2</v>
       </c>
     </row>
     <row r="174">
@@ -4954,13 +4954,13 @@
         </is>
       </c>
       <c r="D174" t="n">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="E174" t="n">
-        <v>1.22</v>
+        <v>2.01</v>
       </c>
       <c r="F174" t="n">
-        <v>2.01</v>
+        <v>2</v>
       </c>
     </row>
     <row r="175">
@@ -4980,13 +4980,13 @@
         </is>
       </c>
       <c r="D175" t="n">
-        <v>2</v>
+        <v>1.38</v>
       </c>
       <c r="E175" t="n">
-        <v>1.38</v>
+        <v>1.08</v>
       </c>
       <c r="F175" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
     </row>
     <row r="176">
@@ -5006,13 +5006,13 @@
         </is>
       </c>
       <c r="D176" t="n">
-        <v>1</v>
+        <v>1.68</v>
       </c>
       <c r="E176" t="n">
-        <v>1.68</v>
+        <v>2.92</v>
       </c>
       <c r="F176" t="n">
-        <v>2.92</v>
+        <v>2</v>
       </c>
     </row>
     <row r="177">
@@ -5032,13 +5032,13 @@
         </is>
       </c>
       <c r="D177" t="n">
-        <v>1</v>
+        <v>1.98</v>
       </c>
       <c r="E177" t="n">
-        <v>1.98</v>
+        <v>1.2</v>
       </c>
       <c r="F177" t="n">
-        <v>1.2</v>
+        <v>2</v>
       </c>
     </row>
     <row r="178">
@@ -5058,13 +5058,13 @@
         </is>
       </c>
       <c r="D178" t="n">
-        <v>2</v>
+        <v>1.7</v>
       </c>
       <c r="E178" t="n">
-        <v>1.7</v>
+        <v>2.22</v>
       </c>
       <c r="F178" t="n">
-        <v>2.22</v>
+        <v>1</v>
       </c>
     </row>
     <row r="179">
@@ -5084,13 +5084,13 @@
         </is>
       </c>
       <c r="D179" t="n">
-        <v>1</v>
+        <v>1.96</v>
       </c>
       <c r="E179" t="n">
-        <v>1.96</v>
+        <v>1.67</v>
       </c>
       <c r="F179" t="n">
-        <v>1.67</v>
+        <v>2</v>
       </c>
     </row>
     <row r="180">
@@ -5110,13 +5110,13 @@
         </is>
       </c>
       <c r="D180" t="n">
-        <v>2</v>
+        <v>1.04</v>
       </c>
       <c r="E180" t="n">
-        <v>1.04</v>
+        <v>1.16</v>
       </c>
       <c r="F180" t="n">
-        <v>1.16</v>
+        <v>1</v>
       </c>
     </row>
     <row r="181">
@@ -5136,13 +5136,13 @@
         </is>
       </c>
       <c r="D181" t="n">
-        <v>2</v>
+        <v>1.59</v>
       </c>
       <c r="E181" t="n">
-        <v>1.59</v>
+        <v>1.01</v>
       </c>
       <c r="F181" t="n">
-        <v>1.01</v>
+        <v>1</v>
       </c>
     </row>
     <row r="182">
@@ -5162,13 +5162,13 @@
         </is>
       </c>
       <c r="D182" t="n">
-        <v>1</v>
+        <v>1.96</v>
       </c>
       <c r="E182" t="n">
-        <v>1.96</v>
+        <v>1.22</v>
       </c>
       <c r="F182" t="n">
-        <v>1.22</v>
+        <v>2</v>
       </c>
     </row>
     <row r="183">
@@ -5188,13 +5188,13 @@
         </is>
       </c>
       <c r="D183" t="n">
-        <v>2</v>
+        <v>1.15</v>
       </c>
       <c r="E183" t="n">
-        <v>1.15</v>
+        <v>1.32</v>
       </c>
       <c r="F183" t="n">
-        <v>1.32</v>
+        <v>1</v>
       </c>
     </row>
     <row r="184">
@@ -5214,13 +5214,13 @@
         </is>
       </c>
       <c r="D184" t="n">
-        <v>1</v>
+        <v>1.92</v>
       </c>
       <c r="E184" t="n">
-        <v>1.92</v>
+        <v>1.7</v>
       </c>
       <c r="F184" t="n">
-        <v>1.7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="185">
@@ -5240,13 +5240,13 @@
         </is>
       </c>
       <c r="D185" t="n">
-        <v>1</v>
+        <v>1.06</v>
       </c>
       <c r="E185" t="n">
-        <v>1.06</v>
+        <v>2.17</v>
       </c>
       <c r="F185" t="n">
-        <v>2.17</v>
+        <v>2</v>
       </c>
     </row>
     <row r="186">
@@ -5266,13 +5266,13 @@
         </is>
       </c>
       <c r="D186" t="n">
-        <v>1</v>
+        <v>1.56</v>
       </c>
       <c r="E186" t="n">
-        <v>1.56</v>
+        <v>2.37</v>
       </c>
       <c r="F186" t="n">
-        <v>2.37</v>
+        <v>2</v>
       </c>
     </row>
     <row r="187">
@@ -5292,13 +5292,13 @@
         </is>
       </c>
       <c r="D187" t="n">
-        <v>1</v>
+        <v>1.44</v>
       </c>
       <c r="E187" t="n">
-        <v>1.44</v>
+        <v>2.72</v>
       </c>
       <c r="F187" t="n">
-        <v>2.72</v>
+        <v>2</v>
       </c>
     </row>
     <row r="188">
@@ -5318,13 +5318,13 @@
         </is>
       </c>
       <c r="D188" t="n">
-        <v>1</v>
+        <v>1.65</v>
       </c>
       <c r="E188" t="n">
-        <v>1.65</v>
+        <v>2.22</v>
       </c>
       <c r="F188" t="n">
-        <v>2.22</v>
+        <v>2</v>
       </c>
     </row>
     <row r="189">
@@ -5344,13 +5344,13 @@
         </is>
       </c>
       <c r="D189" t="n">
-        <v>2</v>
+        <v>1.23</v>
       </c>
       <c r="E189" t="n">
-        <v>1.23</v>
+        <v>2.44</v>
       </c>
       <c r="F189" t="n">
-        <v>2.44</v>
+        <v>1</v>
       </c>
     </row>
     <row r="190">
@@ -5370,13 +5370,13 @@
         </is>
       </c>
       <c r="D190" t="n">
-        <v>1</v>
+        <v>1.73</v>
       </c>
       <c r="E190" t="n">
-        <v>1.73</v>
+        <v>2.35</v>
       </c>
       <c r="F190" t="n">
-        <v>2.35</v>
+        <v>2</v>
       </c>
     </row>
     <row r="191">
@@ -5396,13 +5396,13 @@
         </is>
       </c>
       <c r="D191" t="n">
-        <v>1</v>
+        <v>1.51</v>
       </c>
       <c r="E191" t="n">
-        <v>1.51</v>
+        <v>2.33</v>
       </c>
       <c r="F191" t="n">
-        <v>2.33</v>
+        <v>2</v>
       </c>
     </row>
     <row r="192">
@@ -5422,13 +5422,13 @@
         </is>
       </c>
       <c r="D192" t="n">
-        <v>1</v>
+        <v>1.54</v>
       </c>
       <c r="E192" t="n">
-        <v>1.54</v>
+        <v>3</v>
       </c>
       <c r="F192" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="193">
@@ -5448,13 +5448,13 @@
         </is>
       </c>
       <c r="D193" t="n">
-        <v>2</v>
+        <v>1.35</v>
       </c>
       <c r="E193" t="n">
-        <v>1.35</v>
+        <v>1.52</v>
       </c>
       <c r="F193" t="n">
-        <v>1.52</v>
+        <v>1</v>
       </c>
     </row>
     <row r="194">
@@ -5474,13 +5474,13 @@
         </is>
       </c>
       <c r="D194" t="n">
-        <v>2</v>
+        <v>1.3</v>
       </c>
       <c r="E194" t="n">
-        <v>1.3</v>
+        <v>2.28</v>
       </c>
       <c r="F194" t="n">
-        <v>2.28</v>
+        <v>1</v>
       </c>
     </row>
     <row r="195">
@@ -5500,13 +5500,13 @@
         </is>
       </c>
       <c r="D195" t="n">
-        <v>2</v>
+        <v>1.44</v>
       </c>
       <c r="E195" t="n">
-        <v>1.44</v>
+        <v>1.06</v>
       </c>
       <c r="F195" t="n">
-        <v>1.06</v>
+        <v>1</v>
       </c>
     </row>
     <row r="196">
@@ -5526,13 +5526,13 @@
         </is>
       </c>
       <c r="D196" t="n">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="E196" t="n">
-        <v>1.22</v>
+        <v>2.18</v>
       </c>
       <c r="F196" t="n">
-        <v>2.18</v>
+        <v>2</v>
       </c>
     </row>
     <row r="197">
@@ -5552,13 +5552,13 @@
         </is>
       </c>
       <c r="D197" t="n">
-        <v>2</v>
+        <v>1.71</v>
       </c>
       <c r="E197" t="n">
-        <v>1.71</v>
+        <v>1.47</v>
       </c>
       <c r="F197" t="n">
-        <v>1.47</v>
+        <v>1</v>
       </c>
     </row>
     <row r="198">
@@ -5578,13 +5578,13 @@
         </is>
       </c>
       <c r="D198" t="n">
-        <v>1</v>
+        <v>1.94</v>
       </c>
       <c r="E198" t="n">
-        <v>1.94</v>
+        <v>2.47</v>
       </c>
       <c r="F198" t="n">
-        <v>2.47</v>
+        <v>2</v>
       </c>
     </row>
     <row r="199">
@@ -5604,13 +5604,13 @@
         </is>
       </c>
       <c r="D199" t="n">
-        <v>2</v>
+        <v>1.04</v>
       </c>
       <c r="E199" t="n">
-        <v>1.04</v>
+        <v>1.67</v>
       </c>
       <c r="F199" t="n">
-        <v>1.67</v>
+        <v>1</v>
       </c>
     </row>
     <row r="200">
@@ -5630,13 +5630,13 @@
         </is>
       </c>
       <c r="D200" t="n">
-        <v>2</v>
+        <v>1.64</v>
       </c>
       <c r="E200" t="n">
-        <v>1.64</v>
+        <v>1.52</v>
       </c>
       <c r="F200" t="n">
-        <v>1.52</v>
+        <v>1</v>
       </c>
     </row>
     <row r="201">
@@ -5656,13 +5656,13 @@
         </is>
       </c>
       <c r="D201" t="n">
-        <v>1</v>
+        <v>1.83</v>
       </c>
       <c r="E201" t="n">
-        <v>1.83</v>
+        <v>1.5</v>
       </c>
       <c r="F201" t="n">
-        <v>1.5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="202">
@@ -5682,13 +5682,13 @@
         </is>
       </c>
       <c r="D202" t="n">
-        <v>1</v>
+        <v>1.81</v>
       </c>
       <c r="E202" t="n">
-        <v>1.81</v>
+        <v>2.46</v>
       </c>
       <c r="F202" t="n">
-        <v>2.46</v>
+        <v>2</v>
       </c>
     </row>
     <row r="203">
@@ -5708,13 +5708,13 @@
         </is>
       </c>
       <c r="D203" t="n">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="E203" t="n">
-        <v>1.88</v>
+        <v>2.76</v>
       </c>
       <c r="F203" t="n">
-        <v>2.76</v>
+        <v>1</v>
       </c>
     </row>
     <row r="204">
@@ -5734,13 +5734,13 @@
         </is>
       </c>
       <c r="D204" t="n">
-        <v>1</v>
+        <v>1.16</v>
       </c>
       <c r="E204" t="n">
-        <v>1.16</v>
+        <v>1.76</v>
       </c>
       <c r="F204" t="n">
-        <v>1.76</v>
+        <v>2</v>
       </c>
     </row>
     <row r="205">
@@ -5760,13 +5760,13 @@
         </is>
       </c>
       <c r="D205" t="n">
-        <v>1</v>
+        <v>1.44</v>
       </c>
       <c r="E205" t="n">
-        <v>1.44</v>
+        <v>2.97</v>
       </c>
       <c r="F205" t="n">
-        <v>2.97</v>
+        <v>2</v>
       </c>
     </row>
     <row r="206">
@@ -5786,13 +5786,13 @@
         </is>
       </c>
       <c r="D206" t="n">
-        <v>2</v>
+        <v>1.68</v>
       </c>
       <c r="E206" t="n">
-        <v>1.68</v>
+        <v>1.23</v>
       </c>
       <c r="F206" t="n">
-        <v>1.23</v>
+        <v>1</v>
       </c>
     </row>
     <row r="207">
@@ -5812,13 +5812,13 @@
         </is>
       </c>
       <c r="D207" t="n">
-        <v>1</v>
+        <v>1.19</v>
       </c>
       <c r="E207" t="n">
-        <v>1.19</v>
+        <v>1.09</v>
       </c>
       <c r="F207" t="n">
-        <v>1.09</v>
+        <v>2</v>
       </c>
     </row>
     <row r="208">
@@ -5838,13 +5838,13 @@
         </is>
       </c>
       <c r="D208" t="n">
-        <v>1</v>
+        <v>1.63</v>
       </c>
       <c r="E208" t="n">
-        <v>1.63</v>
+        <v>1.2</v>
       </c>
       <c r="F208" t="n">
-        <v>1.2</v>
+        <v>2</v>
       </c>
     </row>
     <row r="209">
@@ -5864,13 +5864,13 @@
         </is>
       </c>
       <c r="D209" t="n">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="E209" t="n">
-        <v>1.2</v>
+        <v>1.04</v>
       </c>
       <c r="F209" t="n">
-        <v>1.04</v>
+        <v>2</v>
       </c>
     </row>
     <row r="210">
@@ -5890,13 +5890,13 @@
         </is>
       </c>
       <c r="D210" t="n">
-        <v>1</v>
+        <v>1.64</v>
       </c>
       <c r="E210" t="n">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="F210" t="n">
-        <v>1.73</v>
+        <v>2</v>
       </c>
     </row>
     <row r="211">
@@ -5916,13 +5916,13 @@
         </is>
       </c>
       <c r="D211" t="n">
-        <v>1</v>
+        <v>1.48</v>
       </c>
       <c r="E211" t="n">
-        <v>1.48</v>
+        <v>1.87</v>
       </c>
       <c r="F211" t="n">
-        <v>1.87</v>
+        <v>2</v>
       </c>
     </row>
     <row r="212">
@@ -5942,13 +5942,13 @@
         </is>
       </c>
       <c r="D212" t="n">
-        <v>1</v>
+        <v>1.65</v>
       </c>
       <c r="E212" t="n">
-        <v>1.65</v>
+        <v>2.09</v>
       </c>
       <c r="F212" t="n">
-        <v>2.09</v>
+        <v>2</v>
       </c>
     </row>
     <row r="213">
@@ -5968,13 +5968,13 @@
         </is>
       </c>
       <c r="D213" t="n">
-        <v>1</v>
+        <v>1.08</v>
       </c>
       <c r="E213" t="n">
-        <v>1.08</v>
+        <v>2.38</v>
       </c>
       <c r="F213" t="n">
-        <v>2.38</v>
+        <v>2</v>
       </c>
     </row>
     <row r="214">
@@ -5994,13 +5994,13 @@
         </is>
       </c>
       <c r="D214" t="n">
-        <v>1</v>
+        <v>1.74</v>
       </c>
       <c r="E214" t="n">
-        <v>1.74</v>
+        <v>2.35</v>
       </c>
       <c r="F214" t="n">
-        <v>2.35</v>
+        <v>2</v>
       </c>
     </row>
     <row r="215">
@@ -6020,13 +6020,13 @@
         </is>
       </c>
       <c r="D215" t="n">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="E215" t="n">
-        <v>1.85</v>
+        <v>1.36</v>
       </c>
       <c r="F215" t="n">
-        <v>1.36</v>
+        <v>1</v>
       </c>
     </row>
     <row r="216">
@@ -6046,13 +6046,13 @@
         </is>
       </c>
       <c r="D216" t="n">
-        <v>2</v>
+        <v>1.61</v>
       </c>
       <c r="E216" t="n">
-        <v>1.61</v>
+        <v>2.44</v>
       </c>
       <c r="F216" t="n">
-        <v>2.44</v>
+        <v>1</v>
       </c>
     </row>
     <row r="217">
@@ -6072,13 +6072,13 @@
         </is>
       </c>
       <c r="D217" t="n">
-        <v>1</v>
+        <v>1.83</v>
       </c>
       <c r="E217" t="n">
-        <v>1.83</v>
+        <v>2.41</v>
       </c>
       <c r="F217" t="n">
-        <v>2.41</v>
+        <v>2</v>
       </c>
     </row>
     <row r="218">
@@ -6098,13 +6098,13 @@
         </is>
       </c>
       <c r="D218" t="n">
-        <v>2</v>
+        <v>1.59</v>
       </c>
       <c r="E218" t="n">
-        <v>1.59</v>
+        <v>1.64</v>
       </c>
       <c r="F218" t="n">
-        <v>1.64</v>
+        <v>1</v>
       </c>
     </row>
     <row r="219">
@@ -6124,13 +6124,13 @@
         </is>
       </c>
       <c r="D219" t="n">
-        <v>2</v>
+        <v>1.59</v>
       </c>
       <c r="E219" t="n">
-        <v>1.59</v>
+        <v>2.33</v>
       </c>
       <c r="F219" t="n">
-        <v>2.33</v>
+        <v>1</v>
       </c>
     </row>
     <row r="220">
@@ -6150,13 +6150,13 @@
         </is>
       </c>
       <c r="D220" t="n">
-        <v>2</v>
+        <v>1.3</v>
       </c>
       <c r="E220" t="n">
-        <v>1.3</v>
+        <v>1.78</v>
       </c>
       <c r="F220" t="n">
-        <v>1.78</v>
+        <v>1</v>
       </c>
     </row>
     <row r="221">
@@ -6176,13 +6176,13 @@
         </is>
       </c>
       <c r="D221" t="n">
-        <v>1</v>
+        <v>1.42</v>
       </c>
       <c r="E221" t="n">
-        <v>1.42</v>
+        <v>1.06</v>
       </c>
       <c r="F221" t="n">
-        <v>1.06</v>
+        <v>2</v>
       </c>
     </row>
     <row r="222">
@@ -6202,13 +6202,13 @@
         </is>
       </c>
       <c r="D222" t="n">
-        <v>1</v>
+        <v>1.12</v>
       </c>
       <c r="E222" t="n">
-        <v>1.12</v>
+        <v>2.8</v>
       </c>
       <c r="F222" t="n">
-        <v>2.8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="223">
@@ -6228,13 +6228,13 @@
         </is>
       </c>
       <c r="D223" t="n">
-        <v>1</v>
+        <v>1.96</v>
       </c>
       <c r="E223" t="n">
-        <v>1.96</v>
+        <v>2.47</v>
       </c>
       <c r="F223" t="n">
-        <v>2.47</v>
+        <v>2</v>
       </c>
     </row>
     <row r="224">
@@ -6254,13 +6254,13 @@
         </is>
       </c>
       <c r="D224" t="n">
-        <v>2</v>
+        <v>1.58</v>
       </c>
       <c r="E224" t="n">
-        <v>1.58</v>
+        <v>2.05</v>
       </c>
       <c r="F224" t="n">
-        <v>2.05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="225">
@@ -6280,13 +6280,13 @@
         </is>
       </c>
       <c r="D225" t="n">
-        <v>1</v>
+        <v>1.04</v>
       </c>
       <c r="E225" t="n">
-        <v>1.04</v>
+        <v>2.19</v>
       </c>
       <c r="F225" t="n">
-        <v>2.19</v>
+        <v>2</v>
       </c>
     </row>
     <row r="226">
@@ -6306,13 +6306,13 @@
         </is>
       </c>
       <c r="D226" t="n">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="E226" t="n">
-        <v>1.83</v>
+        <v>1.17</v>
       </c>
       <c r="F226" t="n">
-        <v>1.17</v>
+        <v>1</v>
       </c>
     </row>
     <row r="227">
@@ -6332,13 +6332,13 @@
         </is>
       </c>
       <c r="D227" t="n">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="E227" t="n">
-        <v>1.9</v>
+        <v>2.09</v>
       </c>
       <c r="F227" t="n">
-        <v>2.09</v>
+        <v>1</v>
       </c>
     </row>
     <row r="228">
@@ -6358,13 +6358,13 @@
         </is>
       </c>
       <c r="D228" t="n">
-        <v>2</v>
+        <v>1.09</v>
       </c>
       <c r="E228" t="n">
-        <v>1.09</v>
+        <v>1.85</v>
       </c>
       <c r="F228" t="n">
-        <v>1.85</v>
+        <v>1</v>
       </c>
     </row>
     <row r="229">
@@ -6384,13 +6384,13 @@
         </is>
       </c>
       <c r="D229" t="n">
-        <v>2</v>
+        <v>1.47</v>
       </c>
       <c r="E229" t="n">
-        <v>1.47</v>
+        <v>1.88</v>
       </c>
       <c r="F229" t="n">
-        <v>1.88</v>
+        <v>1</v>
       </c>
     </row>
     <row r="230">
@@ -6410,13 +6410,13 @@
         </is>
       </c>
       <c r="D230" t="n">
-        <v>2</v>
+        <v>1.07</v>
       </c>
       <c r="E230" t="n">
-        <v>1.07</v>
+        <v>2.26</v>
       </c>
       <c r="F230" t="n">
-        <v>2.26</v>
+        <v>1</v>
       </c>
     </row>
     <row r="231">
@@ -6436,13 +6436,13 @@
         </is>
       </c>
       <c r="D231" t="n">
-        <v>2</v>
+        <v>1.28</v>
       </c>
       <c r="E231" t="n">
-        <v>1.28</v>
+        <v>2.56</v>
       </c>
       <c r="F231" t="n">
-        <v>2.56</v>
+        <v>1</v>
       </c>
     </row>
     <row r="232">
@@ -6462,13 +6462,13 @@
         </is>
       </c>
       <c r="D232" t="n">
-        <v>1</v>
+        <v>1.85</v>
       </c>
       <c r="E232" t="n">
-        <v>1.85</v>
+        <v>1.33</v>
       </c>
       <c r="F232" t="n">
-        <v>1.33</v>
+        <v>2</v>
       </c>
     </row>
     <row r="233">
@@ -6488,13 +6488,13 @@
         </is>
       </c>
       <c r="D233" t="n">
-        <v>2</v>
+        <v>1.15</v>
       </c>
       <c r="E233" t="n">
-        <v>1.15</v>
+        <v>1.09</v>
       </c>
       <c r="F233" t="n">
-        <v>1.09</v>
+        <v>1</v>
       </c>
     </row>
     <row r="234">
@@ -6514,13 +6514,13 @@
         </is>
       </c>
       <c r="D234" t="n">
-        <v>1</v>
+        <v>1.55</v>
       </c>
       <c r="E234" t="n">
-        <v>1.55</v>
+        <v>1.1</v>
       </c>
       <c r="F234" t="n">
-        <v>1.1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="235">
@@ -6540,13 +6540,13 @@
         </is>
       </c>
       <c r="D235" t="n">
-        <v>2</v>
+        <v>1.31</v>
       </c>
       <c r="E235" t="n">
-        <v>1.31</v>
+        <v>2.31</v>
       </c>
       <c r="F235" t="n">
-        <v>2.31</v>
+        <v>1</v>
       </c>
     </row>
     <row r="236">
@@ -6566,13 +6566,13 @@
         </is>
       </c>
       <c r="D236" t="n">
-        <v>1</v>
+        <v>1.83</v>
       </c>
       <c r="E236" t="n">
-        <v>1.83</v>
+        <v>2.24</v>
       </c>
       <c r="F236" t="n">
-        <v>2.24</v>
+        <v>2</v>
       </c>
     </row>
     <row r="237">
@@ -6592,13 +6592,13 @@
         </is>
       </c>
       <c r="D237" t="n">
-        <v>2</v>
+        <v>1.3</v>
       </c>
       <c r="E237" t="n">
-        <v>1.3</v>
+        <v>1.63</v>
       </c>
       <c r="F237" t="n">
-        <v>1.63</v>
+        <v>1</v>
       </c>
     </row>
     <row r="238">
@@ -6618,13 +6618,13 @@
         </is>
       </c>
       <c r="D238" t="n">
-        <v>1</v>
+        <v>1.89</v>
       </c>
       <c r="E238" t="n">
-        <v>1.89</v>
+        <v>1.17</v>
       </c>
       <c r="F238" t="n">
-        <v>1.17</v>
+        <v>2</v>
       </c>
     </row>
     <row r="239">
@@ -6644,13 +6644,13 @@
         </is>
       </c>
       <c r="D239" t="n">
-        <v>1</v>
+        <v>1.34</v>
       </c>
       <c r="E239" t="n">
-        <v>1.34</v>
+        <v>2.7</v>
       </c>
       <c r="F239" t="n">
-        <v>2.7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="240">
@@ -6670,13 +6670,13 @@
         </is>
       </c>
       <c r="D240" t="n">
-        <v>1</v>
+        <v>1.84</v>
       </c>
       <c r="E240" t="n">
-        <v>1.84</v>
+        <v>2.55</v>
       </c>
       <c r="F240" t="n">
-        <v>2.55</v>
+        <v>2</v>
       </c>
     </row>
     <row r="241">
@@ -6696,13 +6696,13 @@
         </is>
       </c>
       <c r="D241" t="n">
-        <v>1</v>
+        <v>1.7</v>
       </c>
       <c r="E241" t="n">
-        <v>1.7</v>
+        <v>1.09</v>
       </c>
       <c r="F241" t="n">
-        <v>1.09</v>
+        <v>2</v>
       </c>
     </row>
     <row r="242">
@@ -6722,13 +6722,13 @@
         </is>
       </c>
       <c r="D242" t="n">
-        <v>2</v>
+        <v>1.63</v>
       </c>
       <c r="E242" t="n">
-        <v>1.63</v>
+        <v>1.67</v>
       </c>
       <c r="F242" t="n">
-        <v>1.67</v>
+        <v>1</v>
       </c>
     </row>
     <row r="243">
@@ -6748,13 +6748,13 @@
         </is>
       </c>
       <c r="D243" t="n">
-        <v>2</v>
+        <v>1.63</v>
       </c>
       <c r="E243" t="n">
-        <v>1.63</v>
+        <v>1.53</v>
       </c>
       <c r="F243" t="n">
-        <v>1.53</v>
+        <v>1</v>
       </c>
     </row>
     <row r="244">
@@ -6774,13 +6774,13 @@
         </is>
       </c>
       <c r="D244" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="E244" t="n">
-        <v>1.95</v>
+        <v>1.04</v>
       </c>
       <c r="F244" t="n">
-        <v>1.04</v>
+        <v>1</v>
       </c>
     </row>
     <row r="245">
@@ -6800,13 +6800,13 @@
         </is>
       </c>
       <c r="D245" t="n">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="E245" t="n">
-        <v>1.86</v>
+        <v>2.95</v>
       </c>
       <c r="F245" t="n">
-        <v>2.95</v>
+        <v>1</v>
       </c>
     </row>
     <row r="246">
@@ -6826,13 +6826,13 @@
         </is>
       </c>
       <c r="D246" t="n">
-        <v>2</v>
+        <v>1.7</v>
       </c>
       <c r="E246" t="n">
-        <v>1.7</v>
+        <v>1.25</v>
       </c>
       <c r="F246" t="n">
-        <v>1.25</v>
+        <v>1</v>
       </c>
     </row>
     <row r="247">
@@ -6852,13 +6852,13 @@
         </is>
       </c>
       <c r="D247" t="n">
-        <v>1</v>
+        <v>1.55</v>
       </c>
       <c r="E247" t="n">
-        <v>1.55</v>
+        <v>1.38</v>
       </c>
       <c r="F247" t="n">
-        <v>1.38</v>
+        <v>2</v>
       </c>
     </row>
     <row r="248">
@@ -6878,13 +6878,13 @@
         </is>
       </c>
       <c r="D248" t="n">
-        <v>1</v>
+        <v>1.27</v>
       </c>
       <c r="E248" t="n">
-        <v>1.27</v>
+        <v>2.57</v>
       </c>
       <c r="F248" t="n">
-        <v>2.57</v>
+        <v>2</v>
       </c>
     </row>
     <row r="249">
@@ -6904,13 +6904,13 @@
         </is>
       </c>
       <c r="D249" t="n">
-        <v>1</v>
+        <v>1.19</v>
       </c>
       <c r="E249" t="n">
-        <v>1.19</v>
+        <v>1.9</v>
       </c>
       <c r="F249" t="n">
-        <v>1.9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="250">
@@ -6930,13 +6930,13 @@
         </is>
       </c>
       <c r="D250" t="n">
-        <v>2</v>
+        <v>1.24</v>
       </c>
       <c r="E250" t="n">
-        <v>1.24</v>
+        <v>2.31</v>
       </c>
       <c r="F250" t="n">
-        <v>2.31</v>
+        <v>1</v>
       </c>
     </row>
     <row r="251">
@@ -6956,13 +6956,13 @@
         </is>
       </c>
       <c r="D251" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="E251" t="n">
-        <v>1.95</v>
+        <v>1.17</v>
       </c>
       <c r="F251" t="n">
-        <v>1.17</v>
+        <v>1</v>
       </c>
     </row>
     <row r="252">
@@ -6982,13 +6982,13 @@
         </is>
       </c>
       <c r="D252" t="n">
-        <v>1</v>
+        <v>1.32</v>
       </c>
       <c r="E252" t="n">
-        <v>1.32</v>
+        <v>1.54</v>
       </c>
       <c r="F252" t="n">
-        <v>1.54</v>
+        <v>2</v>
       </c>
     </row>
     <row r="253">
@@ -7008,13 +7008,13 @@
         </is>
       </c>
       <c r="D253" t="n">
-        <v>2</v>
+        <v>1.47</v>
       </c>
       <c r="E253" t="n">
-        <v>1.47</v>
+        <v>2.06</v>
       </c>
       <c r="F253" t="n">
-        <v>2.06</v>
+        <v>1</v>
       </c>
     </row>
     <row r="254">
@@ -7034,13 +7034,13 @@
         </is>
       </c>
       <c r="D254" t="n">
-        <v>1</v>
+        <v>1.24</v>
       </c>
       <c r="E254" t="n">
         <v>1.24</v>
       </c>
       <c r="F254" t="n">
-        <v>1.24</v>
+        <v>2</v>
       </c>
     </row>
     <row r="255">
@@ -7060,13 +7060,13 @@
         </is>
       </c>
       <c r="D255" t="n">
-        <v>1</v>
+        <v>1.97</v>
       </c>
       <c r="E255" t="n">
-        <v>1.97</v>
+        <v>1.54</v>
       </c>
       <c r="F255" t="n">
-        <v>1.54</v>
+        <v>2</v>
       </c>
     </row>
     <row r="256">
@@ -7086,13 +7086,13 @@
         </is>
       </c>
       <c r="D256" t="n">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="E256" t="n">
-        <v>1.11</v>
+        <v>2.64</v>
       </c>
       <c r="F256" t="n">
-        <v>2.64</v>
+        <v>2</v>
       </c>
     </row>
     <row r="257">
@@ -7112,13 +7112,13 @@
         </is>
       </c>
       <c r="D257" t="n">
-        <v>2</v>
+        <v>1.34</v>
       </c>
       <c r="E257" t="n">
-        <v>1.34</v>
+        <v>2.18</v>
       </c>
       <c r="F257" t="n">
-        <v>2.18</v>
+        <v>1</v>
       </c>
     </row>
     <row r="258">
@@ -7138,13 +7138,13 @@
         </is>
       </c>
       <c r="D258" t="n">
-        <v>2</v>
+        <v>1.21</v>
       </c>
       <c r="E258" t="n">
-        <v>1.21</v>
+        <v>1.84</v>
       </c>
       <c r="F258" t="n">
-        <v>1.84</v>
+        <v>1</v>
       </c>
     </row>
     <row r="259">
@@ -7164,13 +7164,13 @@
         </is>
       </c>
       <c r="D259" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E259" t="n">
-        <v>2</v>
+        <v>2.67</v>
       </c>
       <c r="F259" t="n">
-        <v>2.67</v>
+        <v>2</v>
       </c>
     </row>
     <row r="260">
@@ -7190,13 +7190,13 @@
         </is>
       </c>
       <c r="D260" t="n">
-        <v>1</v>
+        <v>1.51</v>
       </c>
       <c r="E260" t="n">
-        <v>1.51</v>
+        <v>2.59</v>
       </c>
       <c r="F260" t="n">
-        <v>2.59</v>
+        <v>2</v>
       </c>
     </row>
     <row r="261">
@@ -7216,13 +7216,13 @@
         </is>
       </c>
       <c r="D261" t="n">
-        <v>1</v>
+        <v>1.28</v>
       </c>
       <c r="E261" t="n">
-        <v>1.28</v>
+        <v>1.45</v>
       </c>
       <c r="F261" t="n">
-        <v>1.45</v>
+        <v>2</v>
       </c>
     </row>
     <row r="262">
@@ -7242,13 +7242,13 @@
         </is>
       </c>
       <c r="D262" t="n">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="E262" t="n">
-        <v>1.33</v>
+        <v>2.52</v>
       </c>
       <c r="F262" t="n">
-        <v>2.52</v>
+        <v>2</v>
       </c>
     </row>
     <row r="263">
@@ -7268,13 +7268,13 @@
         </is>
       </c>
       <c r="D263" t="n">
-        <v>1</v>
+        <v>1.81</v>
       </c>
       <c r="E263" t="n">
-        <v>1.81</v>
+        <v>2.08</v>
       </c>
       <c r="F263" t="n">
-        <v>2.08</v>
+        <v>2</v>
       </c>
     </row>
     <row r="264">
@@ -7294,13 +7294,13 @@
         </is>
       </c>
       <c r="D264" t="n">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="E264" t="n">
-        <v>1.75</v>
+        <v>2.85</v>
       </c>
       <c r="F264" t="n">
-        <v>2.85</v>
+        <v>1</v>
       </c>
     </row>
     <row r="265">
@@ -7320,13 +7320,13 @@
         </is>
       </c>
       <c r="D265" t="n">
-        <v>2</v>
+        <v>1.63</v>
       </c>
       <c r="E265" t="n">
-        <v>1.63</v>
+        <v>1.55</v>
       </c>
       <c r="F265" t="n">
-        <v>1.55</v>
+        <v>1</v>
       </c>
     </row>
     <row r="266">
@@ -7346,13 +7346,13 @@
         </is>
       </c>
       <c r="D266" t="n">
-        <v>2</v>
+        <v>1.93</v>
       </c>
       <c r="E266" t="n">
-        <v>1.93</v>
+        <v>2.51</v>
       </c>
       <c r="F266" t="n">
-        <v>2.51</v>
+        <v>1</v>
       </c>
     </row>
     <row r="267">
@@ -7372,13 +7372,13 @@
         </is>
       </c>
       <c r="D267" t="n">
-        <v>1</v>
+        <v>1.77</v>
       </c>
       <c r="E267" t="n">
-        <v>1.77</v>
+        <v>1.34</v>
       </c>
       <c r="F267" t="n">
-        <v>1.34</v>
+        <v>2</v>
       </c>
     </row>
     <row r="268">
@@ -7398,13 +7398,13 @@
         </is>
       </c>
       <c r="D268" t="n">
-        <v>1</v>
+        <v>1.23</v>
       </c>
       <c r="E268" t="n">
-        <v>1.23</v>
+        <v>1.06</v>
       </c>
       <c r="F268" t="n">
-        <v>1.06</v>
+        <v>2</v>
       </c>
     </row>
     <row r="269">
@@ -7424,13 +7424,13 @@
         </is>
       </c>
       <c r="D269" t="n">
-        <v>2</v>
+        <v>1.09</v>
       </c>
       <c r="E269" t="n">
         <v>1.09</v>
       </c>
       <c r="F269" t="n">
-        <v>1.09</v>
+        <v>1</v>
       </c>
     </row>
     <row r="270">
@@ -7450,13 +7450,13 @@
         </is>
       </c>
       <c r="D270" t="n">
-        <v>2</v>
+        <v>1.43</v>
       </c>
       <c r="E270" t="n">
-        <v>1.43</v>
+        <v>2.81</v>
       </c>
       <c r="F270" t="n">
-        <v>2.81</v>
+        <v>1</v>
       </c>
     </row>
     <row r="271">
@@ -7476,13 +7476,13 @@
         </is>
       </c>
       <c r="D271" t="n">
-        <v>2</v>
+        <v>1.12</v>
       </c>
       <c r="E271" t="n">
-        <v>1.12</v>
+        <v>2.07</v>
       </c>
       <c r="F271" t="n">
-        <v>2.07</v>
+        <v>1</v>
       </c>
     </row>
     <row r="272">
@@ -7502,13 +7502,13 @@
         </is>
       </c>
       <c r="D272" t="n">
-        <v>2</v>
+        <v>1.65</v>
       </c>
       <c r="E272" t="n">
-        <v>1.65</v>
+        <v>1.88</v>
       </c>
       <c r="F272" t="n">
-        <v>1.88</v>
+        <v>1</v>
       </c>
     </row>
     <row r="273">
@@ -7528,13 +7528,13 @@
         </is>
       </c>
       <c r="D273" t="n">
-        <v>2</v>
+        <v>1.23</v>
       </c>
       <c r="E273" t="n">
-        <v>1.23</v>
+        <v>2.05</v>
       </c>
       <c r="F273" t="n">
-        <v>2.05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="274">
@@ -7554,13 +7554,13 @@
         </is>
       </c>
       <c r="D274" t="n">
-        <v>1</v>
+        <v>1.66</v>
       </c>
       <c r="E274" t="n">
-        <v>1.66</v>
+        <v>1.57</v>
       </c>
       <c r="F274" t="n">
-        <v>1.57</v>
+        <v>2</v>
       </c>
     </row>
     <row r="275">
@@ -7580,13 +7580,13 @@
         </is>
       </c>
       <c r="D275" t="n">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="E275" t="n">
-        <v>1.88</v>
+        <v>1.05</v>
       </c>
       <c r="F275" t="n">
-        <v>1.05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="276">
@@ -7606,13 +7606,13 @@
         </is>
       </c>
       <c r="D276" t="n">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="E276" t="n">
-        <v>1.92</v>
+        <v>2.2</v>
       </c>
       <c r="F276" t="n">
-        <v>2.2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="277">
@@ -7632,13 +7632,13 @@
         </is>
       </c>
       <c r="D277" t="n">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="E277" t="n">
-        <v>1.67</v>
+        <v>1.71</v>
       </c>
       <c r="F277" t="n">
-        <v>1.71</v>
+        <v>1</v>
       </c>
     </row>
     <row r="278">
@@ -7658,13 +7658,13 @@
         </is>
       </c>
       <c r="D278" t="n">
-        <v>2</v>
+        <v>1.24</v>
       </c>
       <c r="E278" t="n">
-        <v>1.24</v>
+        <v>1.48</v>
       </c>
       <c r="F278" t="n">
-        <v>1.48</v>
+        <v>1</v>
       </c>
     </row>
     <row r="279">
@@ -7684,13 +7684,13 @@
         </is>
       </c>
       <c r="D279" t="n">
-        <v>2</v>
+        <v>1.24</v>
       </c>
       <c r="E279" t="n">
-        <v>1.24</v>
+        <v>2.33</v>
       </c>
       <c r="F279" t="n">
-        <v>2.33</v>
+        <v>1</v>
       </c>
     </row>
     <row r="280">
@@ -7710,13 +7710,13 @@
         </is>
       </c>
       <c r="D280" t="n">
-        <v>2</v>
+        <v>1.77</v>
       </c>
       <c r="E280" t="n">
-        <v>1.77</v>
+        <v>1.26</v>
       </c>
       <c r="F280" t="n">
-        <v>1.26</v>
+        <v>1</v>
       </c>
     </row>
     <row r="281">
@@ -7739,10 +7739,10 @@
         <v>2</v>
       </c>
       <c r="E281" t="n">
-        <v>2</v>
+        <v>1.15</v>
       </c>
       <c r="F281" t="n">
-        <v>1.15</v>
+        <v>1</v>
       </c>
     </row>
     <row r="282">
@@ -7762,13 +7762,13 @@
         </is>
       </c>
       <c r="D282" t="n">
-        <v>1</v>
+        <v>1.96</v>
       </c>
       <c r="E282" t="n">
-        <v>1.96</v>
+        <v>2.99</v>
       </c>
       <c r="F282" t="n">
-        <v>2.99</v>
+        <v>2</v>
       </c>
     </row>
     <row r="283">
@@ -7788,13 +7788,13 @@
         </is>
       </c>
       <c r="D283" t="n">
-        <v>1</v>
+        <v>1.66</v>
       </c>
       <c r="E283" t="n">
-        <v>1.66</v>
+        <v>1.76</v>
       </c>
       <c r="F283" t="n">
-        <v>1.76</v>
+        <v>2</v>
       </c>
     </row>
     <row r="284">
@@ -7814,13 +7814,13 @@
         </is>
       </c>
       <c r="D284" t="n">
-        <v>2</v>
+        <v>1.7</v>
       </c>
       <c r="E284" t="n">
-        <v>1.7</v>
+        <v>1.54</v>
       </c>
       <c r="F284" t="n">
-        <v>1.54</v>
+        <v>1</v>
       </c>
     </row>
     <row r="285">
@@ -7840,13 +7840,13 @@
         </is>
       </c>
       <c r="D285" t="n">
-        <v>1</v>
+        <v>1.35</v>
       </c>
       <c r="E285" t="n">
-        <v>1.35</v>
+        <v>2.57</v>
       </c>
       <c r="F285" t="n">
-        <v>2.57</v>
+        <v>2</v>
       </c>
     </row>
     <row r="286">
@@ -7866,13 +7866,13 @@
         </is>
       </c>
       <c r="D286" t="n">
-        <v>2</v>
+        <v>1.56</v>
       </c>
       <c r="E286" t="n">
-        <v>1.56</v>
+        <v>1.48</v>
       </c>
       <c r="F286" t="n">
-        <v>1.48</v>
+        <v>1</v>
       </c>
     </row>
     <row r="287">
@@ -7892,13 +7892,13 @@
         </is>
       </c>
       <c r="D287" t="n">
-        <v>2</v>
+        <v>1.26</v>
       </c>
       <c r="E287" t="n">
-        <v>1.26</v>
+        <v>2</v>
       </c>
       <c r="F287" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="288">
@@ -7918,13 +7918,13 @@
         </is>
       </c>
       <c r="D288" t="n">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="E288" t="n">
-        <v>1.4</v>
+        <v>2.43</v>
       </c>
       <c r="F288" t="n">
-        <v>2.43</v>
+        <v>2</v>
       </c>
     </row>
     <row r="289">
@@ -7944,13 +7944,13 @@
         </is>
       </c>
       <c r="D289" t="n">
-        <v>1</v>
+        <v>1.95</v>
       </c>
       <c r="E289" t="n">
-        <v>1.95</v>
+        <v>2.84</v>
       </c>
       <c r="F289" t="n">
-        <v>2.84</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/replay_pilot/localizer_conditions.xlsx
+++ b/replay_pilot/localizer_conditions.xlsx
@@ -488,7 +488,7 @@
         <v>2.3</v>
       </c>
       <c r="F2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -514,7 +514,7 @@
         <v>2.21</v>
       </c>
       <c r="F3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -540,7 +540,7 @@
         <v>2.97</v>
       </c>
       <c r="F4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -566,7 +566,7 @@
         <v>2.4</v>
       </c>
       <c r="F5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6">
@@ -592,7 +592,7 @@
         <v>1.04</v>
       </c>
       <c r="F6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -618,7 +618,7 @@
         <v>1.38</v>
       </c>
       <c r="F7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
@@ -644,7 +644,7 @@
         <v>2.95</v>
       </c>
       <c r="F8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
@@ -670,7 +670,7 @@
         <v>2.37</v>
       </c>
       <c r="F9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
@@ -696,7 +696,7 @@
         <v>1.45</v>
       </c>
       <c r="F10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11">
@@ -722,7 +722,7 @@
         <v>1.11</v>
       </c>
       <c r="F11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12">
@@ -748,7 +748,7 @@
         <v>1.15</v>
       </c>
       <c r="F12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13">
@@ -774,7 +774,7 @@
         <v>1.98</v>
       </c>
       <c r="F13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14">
@@ -800,7 +800,7 @@
         <v>1.93</v>
       </c>
       <c r="F14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15">
@@ -826,7 +826,7 @@
         <v>1.88</v>
       </c>
       <c r="F15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16">
@@ -852,7 +852,7 @@
         <v>1.02</v>
       </c>
       <c r="F16" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17">
@@ -878,7 +878,7 @@
         <v>1.12</v>
       </c>
       <c r="F17" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18">
@@ -904,7 +904,7 @@
         <v>1.35</v>
       </c>
       <c r="F18" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19">
@@ -930,7 +930,7 @@
         <v>1.13</v>
       </c>
       <c r="F19" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20">
@@ -956,7 +956,7 @@
         <v>2.57</v>
       </c>
       <c r="F20" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21">
@@ -982,7 +982,7 @@
         <v>2.9</v>
       </c>
       <c r="F21" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22">
@@ -1008,7 +1008,7 @@
         <v>1.56</v>
       </c>
       <c r="F22" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23">
@@ -1034,7 +1034,7 @@
         <v>1.61</v>
       </c>
       <c r="F23" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24">
@@ -1060,7 +1060,7 @@
         <v>2.07</v>
       </c>
       <c r="F24" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25">
@@ -1086,7 +1086,7 @@
         <v>2.44</v>
       </c>
       <c r="F25" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26">
@@ -1112,7 +1112,7 @@
         <v>1.58</v>
       </c>
       <c r="F26" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27">
@@ -1138,7 +1138,7 @@
         <v>2.56</v>
       </c>
       <c r="F27" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28">
@@ -1164,7 +1164,7 @@
         <v>2.97</v>
       </c>
       <c r="F28" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29">
@@ -1190,7 +1190,7 @@
         <v>1.67</v>
       </c>
       <c r="F29" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30">
@@ -1216,7 +1216,7 @@
         <v>2.5</v>
       </c>
       <c r="F30" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31">
@@ -1242,7 +1242,7 @@
         <v>1.44</v>
       </c>
       <c r="F31" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32">
@@ -1268,7 +1268,7 @@
         <v>1.47</v>
       </c>
       <c r="F32" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33">
@@ -1294,7 +1294,7 @@
         <v>2.54</v>
       </c>
       <c r="F33" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34">
@@ -1320,7 +1320,7 @@
         <v>1.42</v>
       </c>
       <c r="F34" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35">
@@ -1346,7 +1346,7 @@
         <v>2.02</v>
       </c>
       <c r="F35" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36">
@@ -1372,7 +1372,7 @@
         <v>1.81</v>
       </c>
       <c r="F36" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37">
@@ -1398,7 +1398,7 @@
         <v>2.96</v>
       </c>
       <c r="F37" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38">
@@ -1424,7 +1424,7 @@
         <v>2.4</v>
       </c>
       <c r="F38" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39">
@@ -1450,7 +1450,7 @@
         <v>1.5</v>
       </c>
       <c r="F39" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40">
@@ -1476,7 +1476,7 @@
         <v>1.1</v>
       </c>
       <c r="F40" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41">
@@ -1502,7 +1502,7 @@
         <v>1.4</v>
       </c>
       <c r="F41" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42">
@@ -1528,7 +1528,7 @@
         <v>2.71</v>
       </c>
       <c r="F42" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43">
@@ -1554,7 +1554,7 @@
         <v>1.31</v>
       </c>
       <c r="F43" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44">
@@ -1580,7 +1580,7 @@
         <v>1.77</v>
       </c>
       <c r="F44" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45">
@@ -1606,7 +1606,7 @@
         <v>1.26</v>
       </c>
       <c r="F45" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46">
@@ -1632,7 +1632,7 @@
         <v>1.85</v>
       </c>
       <c r="F46" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47">
@@ -1658,7 +1658,7 @@
         <v>2.74</v>
       </c>
       <c r="F47" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -1684,7 +1684,7 @@
         <v>2.86</v>
       </c>
       <c r="F48" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49">
@@ -1710,7 +1710,7 @@
         <v>1.68</v>
       </c>
       <c r="F49" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50">
@@ -1736,7 +1736,7 @@
         <v>1.98</v>
       </c>
       <c r="F50" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51">
@@ -1762,7 +1762,7 @@
         <v>1.62</v>
       </c>
       <c r="F51" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="52">
@@ -1788,7 +1788,7 @@
         <v>1.73</v>
       </c>
       <c r="F52" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="53">
@@ -1814,7 +1814,7 @@
         <v>2.33</v>
       </c>
       <c r="F53" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54">
@@ -1840,7 +1840,7 @@
         <v>1.26</v>
       </c>
       <c r="F54" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55">
@@ -1866,7 +1866,7 @@
         <v>1.3</v>
       </c>
       <c r="F55" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="56">
@@ -1892,7 +1892,7 @@
         <v>2.46</v>
       </c>
       <c r="F56" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57">
@@ -1918,7 +1918,7 @@
         <v>2.32</v>
       </c>
       <c r="F57" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58">
@@ -1944,7 +1944,7 @@
         <v>2.34</v>
       </c>
       <c r="F58" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="59">
@@ -1970,7 +1970,7 @@
         <v>2.62</v>
       </c>
       <c r="F59" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="60">
@@ -1996,7 +1996,7 @@
         <v>1.93</v>
       </c>
       <c r="F60" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="61">
@@ -2022,7 +2022,7 @@
         <v>1.42</v>
       </c>
       <c r="F61" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="62">
@@ -2048,7 +2048,7 @@
         <v>1.49</v>
       </c>
       <c r="F62" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="63">
@@ -2074,7 +2074,7 @@
         <v>2.85</v>
       </c>
       <c r="F63" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
@@ -2100,7 +2100,7 @@
         <v>1.21</v>
       </c>
       <c r="F64" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="65">
@@ -2126,7 +2126,7 @@
         <v>2.57</v>
       </c>
       <c r="F65" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
@@ -2152,7 +2152,7 @@
         <v>2.07</v>
       </c>
       <c r="F66" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="67">
@@ -2178,7 +2178,7 @@
         <v>1.61</v>
       </c>
       <c r="F67" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68">
@@ -2204,7 +2204,7 @@
         <v>2.5</v>
       </c>
       <c r="F68" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
@@ -2230,7 +2230,7 @@
         <v>1.86</v>
       </c>
       <c r="F69" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70">
@@ -2256,7 +2256,7 @@
         <v>1.54</v>
       </c>
       <c r="F70" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="71">
@@ -2282,7 +2282,7 @@
         <v>1.86</v>
       </c>
       <c r="F71" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -2308,7 +2308,7 @@
         <v>1.62</v>
       </c>
       <c r="F72" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73">
@@ -2334,7 +2334,7 @@
         <v>2.28</v>
       </c>
       <c r="F73" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74">
@@ -2360,7 +2360,7 @@
         <v>1.01</v>
       </c>
       <c r="F74" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="75">
@@ -2386,7 +2386,7 @@
         <v>2.49</v>
       </c>
       <c r="F75" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="76">
@@ -2412,7 +2412,7 @@
         <v>1.28</v>
       </c>
       <c r="F76" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="77">
@@ -2438,7 +2438,7 @@
         <v>2.73</v>
       </c>
       <c r="F77" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="78">
@@ -2464,7 +2464,7 @@
         <v>1.27</v>
       </c>
       <c r="F78" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="79">
@@ -2490,7 +2490,7 @@
         <v>2.1</v>
       </c>
       <c r="F79" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80">
@@ -2516,7 +2516,7 @@
         <v>2.34</v>
       </c>
       <c r="F80" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
@@ -2542,7 +2542,7 @@
         <v>1.94</v>
       </c>
       <c r="F81" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="82">
@@ -2568,7 +2568,7 @@
         <v>2.18</v>
       </c>
       <c r="F82" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="83">
@@ -2594,7 +2594,7 @@
         <v>2.24</v>
       </c>
       <c r="F83" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="84">
@@ -2620,7 +2620,7 @@
         <v>1.77</v>
       </c>
       <c r="F84" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="85">
@@ -2646,7 +2646,7 @@
         <v>1.59</v>
       </c>
       <c r="F85" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="86">
@@ -2672,7 +2672,7 @@
         <v>2.9</v>
       </c>
       <c r="F86" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87">
@@ -2698,7 +2698,7 @@
         <v>1.19</v>
       </c>
       <c r="F87" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88">
@@ -2724,7 +2724,7 @@
         <v>1.33</v>
       </c>
       <c r="F88" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="89">
@@ -2750,7 +2750,7 @@
         <v>1.52</v>
       </c>
       <c r="F89" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="90">
@@ -2776,7 +2776,7 @@
         <v>1.93</v>
       </c>
       <c r="F90" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="91">
@@ -2802,7 +2802,7 @@
         <v>2.13</v>
       </c>
       <c r="F91" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="92">
@@ -2828,7 +2828,7 @@
         <v>1.5</v>
       </c>
       <c r="F92" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="93">
@@ -2854,7 +2854,7 @@
         <v>1.56</v>
       </c>
       <c r="F93" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
@@ -2880,7 +2880,7 @@
         <v>1.81</v>
       </c>
       <c r="F94" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="95">
@@ -2906,7 +2906,7 @@
         <v>2.01</v>
       </c>
       <c r="F95" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="96">
@@ -2932,7 +2932,7 @@
         <v>1.64</v>
       </c>
       <c r="F96" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97">
@@ -2958,7 +2958,7 @@
         <v>1.5</v>
       </c>
       <c r="F97" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="98">
@@ -2984,7 +2984,7 @@
         <v>1.56</v>
       </c>
       <c r="F98" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="99">
@@ -3010,7 +3010,7 @@
         <v>2.82</v>
       </c>
       <c r="F99" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="100">
@@ -3036,7 +3036,7 @@
         <v>2.6</v>
       </c>
       <c r="F100" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="101">
@@ -3062,7 +3062,7 @@
         <v>1.37</v>
       </c>
       <c r="F101" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="102">
@@ -3088,7 +3088,7 @@
         <v>2.33</v>
       </c>
       <c r="F102" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="103">
@@ -3114,7 +3114,7 @@
         <v>1.13</v>
       </c>
       <c r="F103" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="104">
@@ -3140,7 +3140,7 @@
         <v>2.72</v>
       </c>
       <c r="F104" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="105">
@@ -3166,7 +3166,7 @@
         <v>1.69</v>
       </c>
       <c r="F105" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="106">
@@ -3192,7 +3192,7 @@
         <v>2.15</v>
       </c>
       <c r="F106" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="107">
@@ -3218,7 +3218,7 @@
         <v>2.08</v>
       </c>
       <c r="F107" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="108">
@@ -3244,7 +3244,7 @@
         <v>2.8</v>
       </c>
       <c r="F108" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="109">
@@ -3270,7 +3270,7 @@
         <v>2.92</v>
       </c>
       <c r="F109" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="110">
@@ -3296,7 +3296,7 @@
         <v>1.4</v>
       </c>
       <c r="F110" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="111">
@@ -3322,7 +3322,7 @@
         <v>2.47</v>
       </c>
       <c r="F111" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="112">
@@ -3348,7 +3348,7 @@
         <v>1.43</v>
       </c>
       <c r="F112" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="113">
@@ -3374,7 +3374,7 @@
         <v>1.44</v>
       </c>
       <c r="F113" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="114">
@@ -3400,7 +3400,7 @@
         <v>1.87</v>
       </c>
       <c r="F114" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="115">
@@ -3426,7 +3426,7 @@
         <v>2.55</v>
       </c>
       <c r="F115" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="116">
@@ -3452,7 +3452,7 @@
         <v>1.25</v>
       </c>
       <c r="F116" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="117">
@@ -3478,7 +3478,7 @@
         <v>2.87</v>
       </c>
       <c r="F117" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="118">
@@ -3504,7 +3504,7 @@
         <v>2.5</v>
       </c>
       <c r="F118" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="119">
@@ -3530,7 +3530,7 @@
         <v>1.1</v>
       </c>
       <c r="F119" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="120">
@@ -3556,7 +3556,7 @@
         <v>2.26</v>
       </c>
       <c r="F120" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="121">
@@ -3582,7 +3582,7 @@
         <v>1.49</v>
       </c>
       <c r="F121" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="122">
@@ -3608,7 +3608,7 @@
         <v>2.89</v>
       </c>
       <c r="F122" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="123">
@@ -3634,7 +3634,7 @@
         <v>1.5</v>
       </c>
       <c r="F123" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="124">
@@ -3660,7 +3660,7 @@
         <v>2.21</v>
       </c>
       <c r="F124" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="125">
@@ -3686,7 +3686,7 @@
         <v>2.78</v>
       </c>
       <c r="F125" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="126">
@@ -3712,7 +3712,7 @@
         <v>2.29</v>
       </c>
       <c r="F126" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="127">
@@ -3738,7 +3738,7 @@
         <v>1.05</v>
       </c>
       <c r="F127" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="128">
@@ -3764,7 +3764,7 @@
         <v>2.39</v>
       </c>
       <c r="F128" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="129">
@@ -3790,7 +3790,7 @@
         <v>1.42</v>
       </c>
       <c r="F129" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="130">
@@ -3816,7 +3816,7 @@
         <v>2.14</v>
       </c>
       <c r="F130" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="131">
@@ -3842,7 +3842,7 @@
         <v>2.35</v>
       </c>
       <c r="F131" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="132">
@@ -3868,7 +3868,7 @@
         <v>2.44</v>
       </c>
       <c r="F132" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="133">
@@ -3894,7 +3894,7 @@
         <v>1.72</v>
       </c>
       <c r="F133" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="134">
@@ -3920,7 +3920,7 @@
         <v>2.35</v>
       </c>
       <c r="F134" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="135">
@@ -3946,7 +3946,7 @@
         <v>2.41</v>
       </c>
       <c r="F135" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="136">
@@ -3972,7 +3972,7 @@
         <v>1.14</v>
       </c>
       <c r="F136" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="137">
@@ -3998,7 +3998,7 @@
         <v>1.75</v>
       </c>
       <c r="F137" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="138">
@@ -4024,7 +4024,7 @@
         <v>2.03</v>
       </c>
       <c r="F138" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="139">
@@ -4050,7 +4050,7 @@
         <v>1.86</v>
       </c>
       <c r="F139" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="140">
@@ -4076,7 +4076,7 @@
         <v>1.85</v>
       </c>
       <c r="F140" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="141">
@@ -4102,7 +4102,7 @@
         <v>1.43</v>
       </c>
       <c r="F141" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="142">
@@ -4128,7 +4128,7 @@
         <v>2.57</v>
       </c>
       <c r="F142" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="143">
@@ -4154,7 +4154,7 @@
         <v>2.44</v>
       </c>
       <c r="F143" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="144">
@@ -4180,7 +4180,7 @@
         <v>2.7</v>
       </c>
       <c r="F144" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="145">
@@ -4206,7 +4206,7 @@
         <v>2.85</v>
       </c>
       <c r="F145" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="146">
@@ -4232,7 +4232,7 @@
         <v>1.46</v>
       </c>
       <c r="F146" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="147">
@@ -4258,7 +4258,7 @@
         <v>1.26</v>
       </c>
       <c r="F147" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="148">
@@ -4284,7 +4284,7 @@
         <v>2.27</v>
       </c>
       <c r="F148" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="149">
@@ -4310,7 +4310,7 @@
         <v>2.43</v>
       </c>
       <c r="F149" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="150">
@@ -4336,7 +4336,7 @@
         <v>2.3</v>
       </c>
       <c r="F150" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="151">
@@ -4362,7 +4362,7 @@
         <v>2.16</v>
       </c>
       <c r="F151" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="152">
@@ -4388,7 +4388,7 @@
         <v>2.49</v>
       </c>
       <c r="F152" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="153">
@@ -4414,7 +4414,7 @@
         <v>2.34</v>
       </c>
       <c r="F153" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="154">
@@ -4440,7 +4440,7 @@
         <v>2.96</v>
       </c>
       <c r="F154" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="155">
@@ -4466,7 +4466,7 @@
         <v>2.04</v>
       </c>
       <c r="F155" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="156">
@@ -4492,7 +4492,7 @@
         <v>1.24</v>
       </c>
       <c r="F156" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="157">
@@ -4518,7 +4518,7 @@
         <v>2.4</v>
       </c>
       <c r="F157" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="158">
@@ -4544,7 +4544,7 @@
         <v>2.1</v>
       </c>
       <c r="F158" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="159">
@@ -4570,7 +4570,7 @@
         <v>1.13</v>
       </c>
       <c r="F159" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="160">
@@ -4596,7 +4596,7 @@
         <v>1.21</v>
       </c>
       <c r="F160" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="161">
@@ -4622,7 +4622,7 @@
         <v>1.01</v>
       </c>
       <c r="F161" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="162">
@@ -4648,7 +4648,7 @@
         <v>1.93</v>
       </c>
       <c r="F162" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="163">
@@ -4674,7 +4674,7 @@
         <v>1.06</v>
       </c>
       <c r="F163" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="164">
@@ -4700,7 +4700,7 @@
         <v>2.57</v>
       </c>
       <c r="F164" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="165">
@@ -4726,7 +4726,7 @@
         <v>2.54</v>
       </c>
       <c r="F165" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="166">
@@ -4752,7 +4752,7 @@
         <v>2.56</v>
       </c>
       <c r="F166" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="167">
@@ -4778,7 +4778,7 @@
         <v>2.5</v>
       </c>
       <c r="F167" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="168">
@@ -4804,7 +4804,7 @@
         <v>2.47</v>
       </c>
       <c r="F168" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="169">
@@ -4830,7 +4830,7 @@
         <v>2.72</v>
       </c>
       <c r="F169" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="170">
@@ -4856,7 +4856,7 @@
         <v>1.8</v>
       </c>
       <c r="F170" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="171">
@@ -4882,7 +4882,7 @@
         <v>2.69</v>
       </c>
       <c r="F171" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="172">
@@ -4908,7 +4908,7 @@
         <v>1.59</v>
       </c>
       <c r="F172" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="173">
@@ -4934,7 +4934,7 @@
         <v>1.24</v>
       </c>
       <c r="F173" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="174">
@@ -4960,7 +4960,7 @@
         <v>2.01</v>
       </c>
       <c r="F174" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="175">
@@ -4986,7 +4986,7 @@
         <v>1.08</v>
       </c>
       <c r="F175" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="176">
@@ -5012,7 +5012,7 @@
         <v>2.92</v>
       </c>
       <c r="F176" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="177">
@@ -5038,7 +5038,7 @@
         <v>1.2</v>
       </c>
       <c r="F177" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="178">
@@ -5064,7 +5064,7 @@
         <v>2.22</v>
       </c>
       <c r="F178" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="179">
@@ -5090,7 +5090,7 @@
         <v>1.67</v>
       </c>
       <c r="F179" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="180">
@@ -5116,7 +5116,7 @@
         <v>1.16</v>
       </c>
       <c r="F180" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="181">
@@ -5142,7 +5142,7 @@
         <v>1.01</v>
       </c>
       <c r="F181" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="182">
@@ -5168,7 +5168,7 @@
         <v>1.22</v>
       </c>
       <c r="F182" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="183">
@@ -5194,7 +5194,7 @@
         <v>1.32</v>
       </c>
       <c r="F183" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="184">
@@ -5220,7 +5220,7 @@
         <v>1.7</v>
       </c>
       <c r="F184" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="185">
@@ -5246,7 +5246,7 @@
         <v>2.17</v>
       </c>
       <c r="F185" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="186">
@@ -5272,7 +5272,7 @@
         <v>2.37</v>
       </c>
       <c r="F186" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="187">
@@ -5298,7 +5298,7 @@
         <v>2.72</v>
       </c>
       <c r="F187" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="188">
@@ -5324,7 +5324,7 @@
         <v>2.22</v>
       </c>
       <c r="F188" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="189">
@@ -5350,7 +5350,7 @@
         <v>2.44</v>
       </c>
       <c r="F189" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="190">
@@ -5376,7 +5376,7 @@
         <v>2.35</v>
       </c>
       <c r="F190" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="191">
@@ -5402,7 +5402,7 @@
         <v>2.33</v>
       </c>
       <c r="F191" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="192">
@@ -5428,7 +5428,7 @@
         <v>3</v>
       </c>
       <c r="F192" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="193">
@@ -5454,7 +5454,7 @@
         <v>1.52</v>
       </c>
       <c r="F193" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="194">
@@ -5480,7 +5480,7 @@
         <v>2.28</v>
       </c>
       <c r="F194" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="195">
@@ -5506,7 +5506,7 @@
         <v>1.06</v>
       </c>
       <c r="F195" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="196">
@@ -5532,7 +5532,7 @@
         <v>2.18</v>
       </c>
       <c r="F196" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="197">
@@ -5558,7 +5558,7 @@
         <v>1.47</v>
       </c>
       <c r="F197" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="198">
@@ -5584,7 +5584,7 @@
         <v>2.47</v>
       </c>
       <c r="F198" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="199">
@@ -5610,7 +5610,7 @@
         <v>1.67</v>
       </c>
       <c r="F199" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="200">
@@ -5636,7 +5636,7 @@
         <v>1.52</v>
       </c>
       <c r="F200" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="201">
@@ -5662,7 +5662,7 @@
         <v>1.5</v>
       </c>
       <c r="F201" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="202">
@@ -5688,7 +5688,7 @@
         <v>2.46</v>
       </c>
       <c r="F202" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="203">
@@ -5714,7 +5714,7 @@
         <v>2.76</v>
       </c>
       <c r="F203" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="204">
@@ -5740,7 +5740,7 @@
         <v>1.76</v>
       </c>
       <c r="F204" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="205">
@@ -5766,7 +5766,7 @@
         <v>2.97</v>
       </c>
       <c r="F205" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="206">
@@ -5792,7 +5792,7 @@
         <v>1.23</v>
       </c>
       <c r="F206" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="207">
@@ -5818,7 +5818,7 @@
         <v>1.09</v>
       </c>
       <c r="F207" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="208">
@@ -5844,7 +5844,7 @@
         <v>1.2</v>
       </c>
       <c r="F208" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="209">
@@ -5870,7 +5870,7 @@
         <v>1.04</v>
       </c>
       <c r="F209" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="210">
@@ -5896,7 +5896,7 @@
         <v>1.73</v>
       </c>
       <c r="F210" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="211">
@@ -5922,7 +5922,7 @@
         <v>1.87</v>
       </c>
       <c r="F211" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="212">
@@ -5948,7 +5948,7 @@
         <v>2.09</v>
       </c>
       <c r="F212" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="213">
@@ -5974,7 +5974,7 @@
         <v>2.38</v>
       </c>
       <c r="F213" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="214">
@@ -6000,7 +6000,7 @@
         <v>2.35</v>
       </c>
       <c r="F214" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="215">
@@ -6026,7 +6026,7 @@
         <v>1.36</v>
       </c>
       <c r="F215" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="216">
@@ -6052,7 +6052,7 @@
         <v>2.44</v>
       </c>
       <c r="F216" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="217">
@@ -6078,7 +6078,7 @@
         <v>2.41</v>
       </c>
       <c r="F217" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="218">
@@ -6104,7 +6104,7 @@
         <v>1.64</v>
       </c>
       <c r="F218" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="219">
@@ -6130,7 +6130,7 @@
         <v>2.33</v>
       </c>
       <c r="F219" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="220">
@@ -6156,7 +6156,7 @@
         <v>1.78</v>
       </c>
       <c r="F220" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="221">
@@ -6182,7 +6182,7 @@
         <v>1.06</v>
       </c>
       <c r="F221" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="222">
@@ -6208,7 +6208,7 @@
         <v>2.8</v>
       </c>
       <c r="F222" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="223">
@@ -6234,7 +6234,7 @@
         <v>2.47</v>
       </c>
       <c r="F223" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="224">
@@ -6260,7 +6260,7 @@
         <v>2.05</v>
       </c>
       <c r="F224" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="225">
@@ -6286,7 +6286,7 @@
         <v>2.19</v>
       </c>
       <c r="F225" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="226">
@@ -6312,7 +6312,7 @@
         <v>1.17</v>
       </c>
       <c r="F226" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="227">
@@ -6338,7 +6338,7 @@
         <v>2.09</v>
       </c>
       <c r="F227" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="228">
@@ -6364,7 +6364,7 @@
         <v>1.85</v>
       </c>
       <c r="F228" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="229">
@@ -6390,7 +6390,7 @@
         <v>1.88</v>
       </c>
       <c r="F229" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="230">
@@ -6416,7 +6416,7 @@
         <v>2.26</v>
       </c>
       <c r="F230" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="231">
@@ -6442,7 +6442,7 @@
         <v>2.56</v>
       </c>
       <c r="F231" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="232">
@@ -6468,7 +6468,7 @@
         <v>1.33</v>
       </c>
       <c r="F232" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="233">
@@ -6494,7 +6494,7 @@
         <v>1.09</v>
       </c>
       <c r="F233" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="234">
@@ -6520,7 +6520,7 @@
         <v>1.1</v>
       </c>
       <c r="F234" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="235">
@@ -6546,7 +6546,7 @@
         <v>2.31</v>
       </c>
       <c r="F235" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="236">
@@ -6572,7 +6572,7 @@
         <v>2.24</v>
       </c>
       <c r="F236" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="237">
@@ -6598,7 +6598,7 @@
         <v>1.63</v>
       </c>
       <c r="F237" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="238">
@@ -6624,7 +6624,7 @@
         <v>1.17</v>
       </c>
       <c r="F238" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="239">
@@ -6650,7 +6650,7 @@
         <v>2.7</v>
       </c>
       <c r="F239" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="240">
@@ -6676,7 +6676,7 @@
         <v>2.55</v>
       </c>
       <c r="F240" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="241">
@@ -6702,7 +6702,7 @@
         <v>1.09</v>
       </c>
       <c r="F241" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="242">
@@ -6728,7 +6728,7 @@
         <v>1.67</v>
       </c>
       <c r="F242" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="243">
@@ -6754,7 +6754,7 @@
         <v>1.53</v>
       </c>
       <c r="F243" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="244">
@@ -6780,7 +6780,7 @@
         <v>1.04</v>
       </c>
       <c r="F244" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="245">
@@ -6806,7 +6806,7 @@
         <v>2.95</v>
       </c>
       <c r="F245" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="246">
@@ -6832,7 +6832,7 @@
         <v>1.25</v>
       </c>
       <c r="F246" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="247">
@@ -6858,7 +6858,7 @@
         <v>1.38</v>
       </c>
       <c r="F247" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="248">
@@ -6884,7 +6884,7 @@
         <v>2.57</v>
       </c>
       <c r="F248" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="249">
@@ -6910,7 +6910,7 @@
         <v>1.9</v>
       </c>
       <c r="F249" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="250">
@@ -6936,7 +6936,7 @@
         <v>2.31</v>
       </c>
       <c r="F250" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="251">
@@ -6962,7 +6962,7 @@
         <v>1.17</v>
       </c>
       <c r="F251" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="252">
@@ -6988,7 +6988,7 @@
         <v>1.54</v>
       </c>
       <c r="F252" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="253">
@@ -7014,7 +7014,7 @@
         <v>2.06</v>
       </c>
       <c r="F253" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="254">
@@ -7040,7 +7040,7 @@
         <v>1.24</v>
       </c>
       <c r="F254" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="255">
@@ -7066,7 +7066,7 @@
         <v>1.54</v>
       </c>
       <c r="F255" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="256">
@@ -7092,7 +7092,7 @@
         <v>2.64</v>
       </c>
       <c r="F256" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="257">
@@ -7118,7 +7118,7 @@
         <v>2.18</v>
       </c>
       <c r="F257" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="258">
@@ -7144,7 +7144,7 @@
         <v>1.84</v>
       </c>
       <c r="F258" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="259">
@@ -7170,7 +7170,7 @@
         <v>2.67</v>
       </c>
       <c r="F259" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="260">
@@ -7196,7 +7196,7 @@
         <v>2.59</v>
       </c>
       <c r="F260" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="261">
@@ -7222,7 +7222,7 @@
         <v>1.45</v>
       </c>
       <c r="F261" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="262">
@@ -7248,7 +7248,7 @@
         <v>2.52</v>
       </c>
       <c r="F262" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="263">
@@ -7274,7 +7274,7 @@
         <v>2.08</v>
       </c>
       <c r="F263" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="264">
@@ -7300,7 +7300,7 @@
         <v>2.85</v>
       </c>
       <c r="F264" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="265">
@@ -7326,7 +7326,7 @@
         <v>1.55</v>
       </c>
       <c r="F265" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="266">
@@ -7352,7 +7352,7 @@
         <v>2.51</v>
       </c>
       <c r="F266" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="267">
@@ -7378,7 +7378,7 @@
         <v>1.34</v>
       </c>
       <c r="F267" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="268">
@@ -7404,7 +7404,7 @@
         <v>1.06</v>
       </c>
       <c r="F268" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="269">
@@ -7430,7 +7430,7 @@
         <v>1.09</v>
       </c>
       <c r="F269" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="270">
@@ -7456,7 +7456,7 @@
         <v>2.81</v>
       </c>
       <c r="F270" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="271">
@@ -7482,7 +7482,7 @@
         <v>2.07</v>
       </c>
       <c r="F271" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="272">
@@ -7508,7 +7508,7 @@
         <v>1.88</v>
       </c>
       <c r="F272" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="273">
@@ -7534,7 +7534,7 @@
         <v>2.05</v>
       </c>
       <c r="F273" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="274">
@@ -7560,7 +7560,7 @@
         <v>1.57</v>
       </c>
       <c r="F274" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="275">
@@ -7586,7 +7586,7 @@
         <v>1.05</v>
       </c>
       <c r="F275" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="276">
@@ -7612,7 +7612,7 @@
         <v>2.2</v>
       </c>
       <c r="F276" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="277">
@@ -7638,7 +7638,7 @@
         <v>1.71</v>
       </c>
       <c r="F277" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="278">
@@ -7664,7 +7664,7 @@
         <v>1.48</v>
       </c>
       <c r="F278" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="279">
@@ -7690,7 +7690,7 @@
         <v>2.33</v>
       </c>
       <c r="F279" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="280">
@@ -7716,7 +7716,7 @@
         <v>1.26</v>
       </c>
       <c r="F280" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="281">
@@ -7742,7 +7742,7 @@
         <v>1.15</v>
       </c>
       <c r="F281" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="282">
@@ -7768,7 +7768,7 @@
         <v>2.99</v>
       </c>
       <c r="F282" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="283">
@@ -7794,7 +7794,7 @@
         <v>1.76</v>
       </c>
       <c r="F283" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="284">
@@ -7820,7 +7820,7 @@
         <v>1.54</v>
       </c>
       <c r="F284" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="285">
@@ -7846,7 +7846,7 @@
         <v>2.57</v>
       </c>
       <c r="F285" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="286">
@@ -7872,7 +7872,7 @@
         <v>1.48</v>
       </c>
       <c r="F286" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="287">
@@ -7898,7 +7898,7 @@
         <v>2</v>
       </c>
       <c r="F287" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="288">
@@ -7924,7 +7924,7 @@
         <v>2.43</v>
       </c>
       <c r="F288" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="289">
@@ -7950,7 +7950,7 @@
         <v>2.84</v>
       </c>
       <c r="F289" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
